--- a/lab.xlsx
+++ b/lab.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B82D6-C873-224E-B93A-23748B176B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8445" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DL Laki - laki dewasa" sheetId="1" r:id="rId1"/>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="269">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -890,12 +896,18 @@
   <si>
     <t xml:space="preserve">X Pert (TCM TB) </t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,15 +1202,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1232,6 +1235,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1241,8 +1256,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,6 +1268,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1275,7 +1293,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1311,7 +1335,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1440,7 +1470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1476,7 +1512,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1605,7 +1647,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1641,7 +1689,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1770,7 +1824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1806,7 +1866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1935,7 +2001,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1971,7 +2043,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2100,7 +2178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2136,7 +2220,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2265,7 +2355,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2301,7 +2397,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2430,7 +2532,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2466,7 +2574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2595,7 +2709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2631,7 +2751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2760,7 +2886,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2796,7 +2928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2925,7 +3063,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2961,7 +3105,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3090,7 +3240,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3126,7 +3282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3255,7 +3417,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3291,7 +3459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3420,7 +3594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3456,7 +3636,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3585,7 +3771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3621,7 +3813,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3750,7 +3948,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3786,7 +3990,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3915,7 +4125,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3951,7 +4167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4080,7 +4302,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4116,7 +4344,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4245,7 +4479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4281,7 +4521,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4436,7 +4682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4468,9 +4714,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4502,6 +4766,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4677,25 +4959,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4705,19 +4987,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -4731,7 +5013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -4745,7 +5027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -4759,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -4773,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -4781,12 +5063,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21.75" customHeight="1">
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -4805,7 +5087,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -4815,7 +5097,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
@@ -4829,7 +5111,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +5125,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -4857,7 +5139,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -4871,7 +5153,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
@@ -4885,7 +5167,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
@@ -4899,7 +5181,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
@@ -4913,7 +5195,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -4927,7 +5209,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
@@ -4941,7 +5223,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>25</v>
       </c>
@@ -4955,7 +5237,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -4969,7 +5251,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
@@ -4983,7 +5265,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>28</v>
       </c>
@@ -4997,7 +5279,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>29</v>
       </c>
@@ -5011,7 +5293,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
@@ -5025,7 +5307,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
@@ -5039,7 +5321,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
@@ -5053,7 +5335,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
@@ -5067,7 +5349,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -5081,7 +5363,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -5095,7 +5377,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>36</v>
       </c>
@@ -5109,7 +5391,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
@@ -5123,7 +5405,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
@@ -5137,7 +5419,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
@@ -5149,19 +5431,19 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -5174,34 +5456,34 @@
       </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="55" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>179</v>
       </c>
@@ -5218,25 +5500,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5246,75 +5528,75 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -5322,12 +5604,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -5346,7 +5628,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>164</v>
       </c>
@@ -5356,7 +5638,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>154</v>
       </c>
@@ -5366,7 +5648,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>165</v>
       </c>
@@ -5378,7 +5660,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>166</v>
       </c>
@@ -5390,7 +5672,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>167</v>
       </c>
@@ -5402,7 +5684,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>168</v>
       </c>
@@ -5414,7 +5696,7 @@
       <c r="E24" s="39"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>176</v>
       </c>
@@ -5424,7 +5706,7 @@
       <c r="E25" s="39"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>169</v>
       </c>
@@ -5438,7 +5720,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>170</v>
       </c>
@@ -5452,7 +5734,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>171</v>
       </c>
@@ -5464,7 +5746,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>172</v>
       </c>
@@ -5476,7 +5758,7 @@
       <c r="E29" s="39"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>173</v>
       </c>
@@ -5488,7 +5770,7 @@
       <c r="E30" s="39"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>174</v>
       </c>
@@ -5500,7 +5782,7 @@
       <c r="E31" s="39"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>175</v>
       </c>
@@ -5512,7 +5794,7 @@
       <c r="E32" s="39"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="43"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
@@ -5520,7 +5802,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="43"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -5528,7 +5810,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -5536,11 +5818,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -5552,34 +5834,34 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -5595,25 +5877,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5623,89 +5905,89 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -5724,7 +6006,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
         <v>180</v>
       </c>
@@ -5734,7 +6016,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>181</v>
       </c>
@@ -5746,7 +6028,7 @@
       <c r="E20" s="39"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>182</v>
       </c>
@@ -5758,7 +6040,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
         <v>183</v>
       </c>
@@ -5770,7 +6052,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>184</v>
       </c>
@@ -5782,7 +6064,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
         <v>185</v>
       </c>
@@ -5794,7 +6076,7 @@
       <c r="E24" s="39"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
         <v>186</v>
       </c>
@@ -5806,56 +6088,56 @@
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1">
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="27"/>
       <c r="D26" s="49"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1">
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="27"/>
       <c r="D27" s="49"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1">
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="27"/>
       <c r="D28" s="49"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1">
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="27"/>
       <c r="D29" s="49"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1">
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="27"/>
       <c r="D30" s="49"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1">
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="27"/>
       <c r="D31" s="49"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1">
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="27"/>
       <c r="D32" s="49"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
@@ -5863,7 +6145,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -5871,7 +6153,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -5879,11 +6161,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -5895,34 +6177,34 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -5938,25 +6220,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5966,75 +6248,75 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -6042,12 +6324,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -6066,7 +6348,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>187</v>
       </c>
@@ -6080,7 +6362,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>188</v>
       </c>
@@ -6094,7 +6376,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="27"/>
       <c r="C21" s="8"/>
@@ -6102,7 +6384,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="27"/>
       <c r="C22" s="8"/>
@@ -6110,7 +6392,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="27"/>
       <c r="C23" s="8"/>
@@ -6118,7 +6400,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="27"/>
       <c r="C24" s="8"/>
@@ -6126,7 +6408,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="27"/>
       <c r="C25" s="8"/>
@@ -6134,7 +6416,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="27"/>
       <c r="C26" s="8"/>
@@ -6142,7 +6424,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="27"/>
       <c r="C27" s="8"/>
@@ -6150,7 +6432,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="27"/>
       <c r="C28" s="8"/>
@@ -6158,7 +6440,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="27"/>
       <c r="C29" s="8"/>
@@ -6166,7 +6448,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="27"/>
       <c r="C30" s="8"/>
@@ -6174,7 +6456,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="27"/>
       <c r="C31" s="8"/>
@@ -6182,7 +6464,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
@@ -6190,7 +6472,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
@@ -6198,7 +6480,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -6206,7 +6488,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -6214,11 +6496,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -6230,34 +6512,34 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -6273,25 +6555,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6301,89 +6583,89 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -6402,7 +6684,7 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>192</v>
       </c>
@@ -6412,7 +6694,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>193</v>
       </c>
@@ -6421,12 +6703,12 @@
       <c r="D20" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="56" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>194</v>
       </c>
@@ -6435,12 +6717,12 @@
       <c r="D21" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="56" t="s">
         <v>199</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>195</v>
       </c>
@@ -6454,77 +6736,77 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1">
+    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
       <c r="B23" s="27"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1">
+    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="43"/>
       <c r="B24" s="27"/>
-      <c r="D24" s="61"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="72"/>
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
       <c r="B25" s="27"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1">
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43"/>
       <c r="B26" s="27"/>
       <c r="D26" s="44"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1">
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43"/>
       <c r="B27" s="27"/>
       <c r="D27" s="44"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1">
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
       <c r="B28" s="27"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1">
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="43"/>
       <c r="B29" s="27"/>
-      <c r="D29" s="61"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1">
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43"/>
       <c r="B30" s="27"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1">
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43"/>
       <c r="B31" s="27"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1">
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>
       <c r="B32" s="27"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="43"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
@@ -6532,7 +6814,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="43"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -6540,7 +6822,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -6548,11 +6830,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -6564,34 +6846,34 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -6608,25 +6890,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6636,89 +6918,89 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -6737,7 +7019,7 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>202</v>
       </c>
@@ -6747,7 +7029,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>200</v>
       </c>
@@ -6756,10 +7038,10 @@
       <c r="D20" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="59"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>208</v>
       </c>
@@ -6768,12 +7050,12 @@
       <c r="D21" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="56" t="s">
         <v>203</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>209</v>
       </c>
@@ -6782,26 +7064,26 @@
       <c r="D22" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="56" t="s">
         <v>203</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>201</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="56" t="s">
         <v>199</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>210</v>
       </c>
@@ -6810,12 +7092,12 @@
       <c r="D24" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="56" t="s">
         <v>199</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>211</v>
       </c>
@@ -6824,12 +7106,12 @@
       <c r="D25" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="56" t="s">
         <v>199</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>212</v>
       </c>
@@ -6843,7 +7125,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="43"/>
       <c r="B27" s="27"/>
       <c r="C27" s="8"/>
@@ -6851,47 +7133,47 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
       <c r="B28" s="27"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="43"/>
       <c r="B29" s="27"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="61"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="43"/>
       <c r="B30" s="27"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="43"/>
       <c r="B31" s="27"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="43"/>
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="43"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
@@ -6899,7 +7181,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="43"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -6907,7 +7189,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -6915,11 +7197,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -6931,34 +7213,34 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -6974,25 +7256,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7002,89 +7284,89 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -7103,7 +7385,7 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
         <v>216</v>
       </c>
@@ -7113,7 +7395,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>217</v>
       </c>
@@ -7125,31 +7407,31 @@
       <c r="E20" s="39"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>218</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="60" t="s">
         <v>220</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
         <v>219</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="60" t="s">
         <v>220</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="27"/>
       <c r="C23" s="8"/>
@@ -7157,7 +7439,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="27"/>
       <c r="C24" s="8"/>
@@ -7165,7 +7447,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="27"/>
       <c r="C25" s="8"/>
@@ -7173,7 +7455,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="27"/>
       <c r="C26" s="8"/>
@@ -7181,7 +7463,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="27"/>
       <c r="C27" s="8"/>
@@ -7189,7 +7471,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="27"/>
       <c r="C28" s="8"/>
@@ -7197,7 +7479,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="27"/>
       <c r="C29" s="8"/>
@@ -7205,7 +7487,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="27"/>
       <c r="C30" s="8"/>
@@ -7213,11 +7495,11 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -7229,34 +7511,34 @@
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="57" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>179</v>
       </c>
@@ -7272,25 +7554,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7300,89 +7582,89 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -7401,7 +7683,7 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
         <v>221</v>
       </c>
@@ -7411,8 +7693,8 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
         <v>223</v>
       </c>
       <c r="B20" s="35"/>
@@ -7420,46 +7702,46 @@
       <c r="D20" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="56" t="s">
         <v>225</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
         <v>222</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="56" t="s">
         <v>225</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="27"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="27"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="66"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="27"/>
       <c r="C24" s="8"/>
@@ -7469,7 +7751,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="27"/>
       <c r="C25" s="8"/>
@@ -7479,7 +7761,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="27"/>
       <c r="C26" s="8"/>
@@ -7489,7 +7771,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="27"/>
       <c r="C27" s="8"/>
@@ -7497,7 +7779,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="27"/>
       <c r="C28" s="8"/>
@@ -7505,7 +7787,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="27"/>
       <c r="C29" s="8"/>
@@ -7513,7 +7795,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="27"/>
       <c r="C30" s="8"/>
@@ -7521,7 +7803,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="27"/>
       <c r="C31" s="8"/>
@@ -7529,7 +7811,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
@@ -7537,7 +7819,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
@@ -7545,7 +7827,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -7553,7 +7835,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -7561,11 +7843,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -7577,34 +7859,34 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -7620,25 +7902,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7648,89 +7930,89 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -7749,7 +8031,7 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
         <v>227</v>
       </c>
@@ -7759,8 +8041,8 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
         <v>228</v>
       </c>
       <c r="B20" s="14"/>
@@ -7771,25 +8053,25 @@
       <c r="E20" s="24"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
         <v>229</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
         <v>230</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E22" s="16"/>
@@ -7797,13 +8079,13 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
         <v>231</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="59" t="s">
         <v>161</v>
       </c>
       <c r="E23" s="16"/>
@@ -7811,13 +8093,13 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="s">
         <v>232</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E24" s="16"/>
@@ -7825,13 +8107,13 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="64" t="s">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
         <v>233</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E25" s="16"/>
@@ -7839,7 +8121,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="27"/>
       <c r="C26" s="8"/>
@@ -7849,7 +8131,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="27"/>
       <c r="C27" s="8"/>
@@ -7857,7 +8139,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="27"/>
       <c r="C28" s="8"/>
@@ -7865,7 +8147,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="27"/>
       <c r="C29" s="8"/>
@@ -7873,7 +8155,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="27"/>
       <c r="C30" s="8"/>
@@ -7881,7 +8163,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="27"/>
       <c r="C31" s="8"/>
@@ -7889,7 +8171,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
@@ -7897,7 +8179,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
@@ -7905,7 +8187,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -7913,7 +8195,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -7921,11 +8203,11 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -7937,34 +8219,34 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>179</v>
       </c>
@@ -7980,25 +8262,25 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="24.28515625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="24.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8008,89 +8290,89 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
@@ -8111,8 +8393,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
         <v>234</v>
       </c>
       <c r="B19" s="11"/>
@@ -8123,8 +8405,8 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
         <v>235</v>
       </c>
       <c r="B20" s="14"/>
@@ -8133,23 +8415,23 @@
       <c r="E20" s="24"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="63"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="24"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
         <v>237</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E22" s="16"/>
@@ -8157,13 +8439,13 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="59" t="s">
         <v>239</v>
       </c>
       <c r="E23" s="16"/>
@@ -8171,13 +8453,13 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="s">
         <v>240</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="60" t="s">
         <v>241</v>
       </c>
       <c r="E24" s="16"/>
@@ -8185,13 +8467,13 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="64" t="s">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="61" t="s">
         <v>242</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E25" s="16"/>
@@ -8199,13 +8481,13 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="61" t="s">
         <v>243</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="60" t="s">
         <v>128</v>
       </c>
       <c r="E26" s="24" t="s">
@@ -8215,13 +8497,13 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="64" t="s">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>245</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="60" t="s">
         <v>246</v>
       </c>
       <c r="E27" s="33" t="s">
@@ -8229,13 +8511,13 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="64" t="s">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="61" t="s">
         <v>248</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="60" t="s">
         <v>249</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -8243,75 +8525,75 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="64" t="s">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="64" t="s">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="61" t="s">
         <v>252</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="64" t="s">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
         <v>266</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="67"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="64"/>
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
       <c r="D32" s="49"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="67"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="64"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
       <c r="D33" s="49"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="67"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="64"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
       <c r="D34" s="49"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="67"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="64"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
       <c r="D35" s="49"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="27"/>
       <c r="C36" s="8"/>
@@ -8319,7 +8601,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="27"/>
       <c r="C37" s="8"/>
@@ -8327,7 +8609,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="27"/>
       <c r="C38" s="8"/>
@@ -8335,7 +8617,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="27"/>
       <c r="C39" s="8"/>
@@ -8343,11 +8625,11 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>69</v>
       </c>
@@ -8359,29 +8641,29 @@
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="57" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>155</v>
       </c>
@@ -8397,25 +8679,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="24.28515625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="24.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8425,234 +8707,234 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D14" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="45"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="67"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="64"/>
       <c r="B23" s="27"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="68"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="67"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="64"/>
       <c r="B24" s="27"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="65"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="32"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="67"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="64"/>
       <c r="B25" s="27"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="68"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="67"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="64"/>
       <c r="B26" s="27"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="68"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="67"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="64"/>
       <c r="B27" s="27"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="68"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="67"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="64"/>
       <c r="B28" s="27"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="68"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="67"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="64"/>
       <c r="B29" s="27"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="68"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="67"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="64"/>
       <c r="B30" s="27"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="67"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="64"/>
       <c r="B31" s="27"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="65"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="67"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="64"/>
       <c r="B32" s="27"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="65"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="67"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="64"/>
       <c r="B33" s="27"/>
       <c r="C33" s="8"/>
       <c r="D33" s="49"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="27"/>
       <c r="C34" s="8"/>
@@ -8660,7 +8942,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="27"/>
       <c r="C35" s="8"/>
@@ -8668,7 +8950,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="27"/>
       <c r="C36" s="8"/>
@@ -8676,7 +8958,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="27"/>
       <c r="C37" s="8"/>
@@ -8684,11 +8966,11 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
@@ -8700,29 +8982,29 @@
       </c>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="57" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
       <c r="E43" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>155</v>
       </c>
@@ -8743,25 +9025,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="8" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8771,19 +9053,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -8797,7 +9079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -8811,7 +9093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -8825,7 +9107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -8839,7 +9121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -8847,12 +9129,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -8868,10 +9150,14 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -8881,7 +9167,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
@@ -8895,7 +9181,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
@@ -8909,7 +9195,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -8923,7 +9209,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -8935,9 +9221,14 @@
       <c r="E23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
@@ -8949,9 +9240,14 @@
       <c r="E24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
@@ -8963,9 +9259,14 @@
       <c r="E25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
@@ -8977,9 +9278,14 @@
       <c r="E26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" s="2">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -8991,9 +9297,14 @@
       <c r="E27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" s="2">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
@@ -9005,9 +9316,14 @@
       <c r="E28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>25</v>
       </c>
@@ -9019,9 +9335,14 @@
       <c r="E29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -9033,9 +9354,14 @@
       <c r="E30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
@@ -9047,9 +9373,14 @@
       <c r="E31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="G31" s="5">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>28</v>
       </c>
@@ -9061,9 +9392,14 @@
       <c r="E32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="73">
+        <v>11.4</v>
+      </c>
+      <c r="G32" s="73">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>29</v>
       </c>
@@ -9075,9 +9411,14 @@
       <c r="E33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="2">
+        <v>40</v>
+      </c>
+      <c r="G33" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
@@ -9089,9 +9430,14 @@
       <c r="E34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
@@ -9103,9 +9449,14 @@
       <c r="E35" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="2">
+        <v>26</v>
+      </c>
+      <c r="G35" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
@@ -9117,9 +9468,14 @@
       <c r="E36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="2">
+        <v>31</v>
+      </c>
+      <c r="G36" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
@@ -9131,9 +9487,14 @@
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -9145,9 +9506,14 @@
       <c r="E38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="2">
+        <v>37</v>
+      </c>
+      <c r="G38" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -9159,9 +9525,14 @@
       <c r="E39" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G39" s="5">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>36</v>
       </c>
@@ -9173,9 +9544,14 @@
       <c r="E40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="2">
+        <v>7</v>
+      </c>
+      <c r="G40" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
@@ -9187,9 +9563,14 @@
       <c r="E41" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="2">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
@@ -9201,9 +9582,14 @@
       <c r="E42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="G42" s="73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
@@ -9215,19 +9601,19 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -9240,34 +9626,34 @@
       </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="55" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>179</v>
       </c>
@@ -9283,69 +9669,69 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>264</v>
       </c>
@@ -9356,25 +9742,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9384,19 +9770,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -9410,7 +9796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -9424,7 +9810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -9438,7 +9824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -9452,7 +9838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -9460,12 +9846,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -9484,7 +9870,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -9494,7 +9880,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
@@ -9508,7 +9894,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
@@ -9522,7 +9908,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -9536,7 +9922,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -9550,7 +9936,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
@@ -9564,7 +9950,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
@@ -9578,7 +9964,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
@@ -9592,7 +9978,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -9606,7 +9992,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
@@ -9620,7 +10006,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>25</v>
       </c>
@@ -9634,7 +10020,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -9648,7 +10034,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
@@ -9662,7 +10048,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>28</v>
       </c>
@@ -9676,7 +10062,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>29</v>
       </c>
@@ -9690,7 +10076,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
@@ -9704,7 +10090,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
@@ -9718,7 +10104,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
@@ -9732,7 +10118,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
@@ -9746,7 +10132,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -9760,7 +10146,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -9774,7 +10160,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>36</v>
       </c>
@@ -9788,7 +10174,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
@@ -9802,7 +10188,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
@@ -9816,7 +10202,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
@@ -9828,19 +10214,19 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -9853,34 +10239,34 @@
       </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="55" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>179</v>
       </c>
@@ -9896,25 +10282,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9924,19 +10310,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -9950,7 +10336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -9964,7 +10350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -9978,7 +10364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -9992,7 +10378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -10000,12 +10386,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -10024,7 +10410,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -10034,7 +10420,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
@@ -10048,7 +10434,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
@@ -10062,7 +10448,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -10076,7 +10462,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
@@ -10090,7 +10476,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>20</v>
       </c>
@@ -10104,7 +10490,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
@@ -10118,7 +10504,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
@@ -10132,7 +10518,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -10146,7 +10532,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
@@ -10160,7 +10546,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>25</v>
       </c>
@@ -10174,7 +10560,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>26</v>
       </c>
@@ -10188,7 +10574,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
@@ -10202,7 +10588,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>28</v>
       </c>
@@ -10216,7 +10602,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>29</v>
       </c>
@@ -10230,7 +10616,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
@@ -10244,7 +10630,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
@@ -10258,7 +10644,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
@@ -10272,7 +10658,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
@@ -10286,7 +10672,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -10300,7 +10686,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -10314,7 +10700,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>36</v>
       </c>
@@ -10328,7 +10714,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
@@ -10342,7 +10728,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
@@ -10356,7 +10742,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
@@ -10368,19 +10754,19 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -10393,34 +10779,34 @@
       </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="55" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>179</v>
       </c>
@@ -10436,25 +10822,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -10464,19 +10850,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -10490,7 +10876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -10504,7 +10890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -10518,7 +10904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -10532,7 +10918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -10540,12 +10926,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -10564,7 +10950,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -10572,7 +10958,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>91</v>
       </c>
@@ -10586,7 +10972,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>92</v>
       </c>
@@ -10600,7 +10986,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>93</v>
       </c>
@@ -10614,7 +11000,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>94</v>
       </c>
@@ -10628,7 +11014,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>95</v>
       </c>
@@ -10642,7 +11028,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>96</v>
       </c>
@@ -10656,7 +11042,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>97</v>
       </c>
@@ -10670,7 +11056,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>98</v>
       </c>
@@ -10684,7 +11070,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>99</v>
       </c>
@@ -10698,7 +11084,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>89</v>
       </c>
@@ -10712,7 +11098,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>90</v>
       </c>
@@ -10726,7 +11112,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>100</v>
       </c>
@@ -10740,7 +11126,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>101</v>
       </c>
@@ -10754,7 +11140,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>102</v>
       </c>
@@ -10768,7 +11154,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>103</v>
       </c>
@@ -10782,7 +11168,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>104</v>
       </c>
@@ -10796,7 +11182,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
@@ -10810,19 +11196,19 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -10835,29 +11221,29 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="55" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
@@ -10873,25 +11259,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -10901,19 +11287,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -10927,7 +11313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -10941,7 +11327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -10955,7 +11341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -10969,7 +11355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -10977,12 +11363,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -11001,7 +11387,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -11009,7 +11395,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>91</v>
       </c>
@@ -11023,7 +11409,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>92</v>
       </c>
@@ -11037,7 +11423,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>93</v>
       </c>
@@ -11051,7 +11437,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>94</v>
       </c>
@@ -11065,7 +11451,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>95</v>
       </c>
@@ -11079,7 +11465,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>96</v>
       </c>
@@ -11093,7 +11479,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>97</v>
       </c>
@@ -11107,7 +11493,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>98</v>
       </c>
@@ -11121,7 +11507,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>99</v>
       </c>
@@ -11135,7 +11521,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>89</v>
       </c>
@@ -11149,7 +11535,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>90</v>
       </c>
@@ -11163,7 +11549,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>100</v>
       </c>
@@ -11177,7 +11563,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>101</v>
       </c>
@@ -11191,7 +11577,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>102</v>
       </c>
@@ -11205,7 +11591,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>103</v>
       </c>
@@ -11219,7 +11605,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>104</v>
       </c>
@@ -11233,7 +11619,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
@@ -11247,19 +11633,19 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -11272,29 +11658,29 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="55" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
@@ -11310,25 +11696,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -11338,19 +11724,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -11364,7 +11750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -11378,7 +11764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -11392,7 +11778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -11406,7 +11792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -11414,12 +11800,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -11438,7 +11824,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -11446,7 +11832,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>91</v>
       </c>
@@ -11460,7 +11846,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>92</v>
       </c>
@@ -11474,7 +11860,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>93</v>
       </c>
@@ -11488,7 +11874,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>94</v>
       </c>
@@ -11502,7 +11888,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>95</v>
       </c>
@@ -11516,7 +11902,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>96</v>
       </c>
@@ -11530,7 +11916,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>97</v>
       </c>
@@ -11544,7 +11930,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>98</v>
       </c>
@@ -11558,7 +11944,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>99</v>
       </c>
@@ -11572,7 +11958,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>89</v>
       </c>
@@ -11586,7 +11972,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>90</v>
       </c>
@@ -11600,7 +11986,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>100</v>
       </c>
@@ -11614,7 +12000,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>101</v>
       </c>
@@ -11628,7 +12014,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>102</v>
       </c>
@@ -11642,7 +12028,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>103</v>
       </c>
@@ -11656,7 +12042,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>104</v>
       </c>
@@ -11670,7 +12056,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
@@ -11684,19 +12070,19 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -11709,29 +12095,29 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="55" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
@@ -11747,25 +12133,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -11775,19 +12161,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -11801,7 +12187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -11815,7 +12201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -11829,7 +12215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -11843,7 +12229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -11851,12 +12237,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -11875,7 +12261,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -11883,7 +12269,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>91</v>
       </c>
@@ -11897,7 +12283,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>92</v>
       </c>
@@ -11911,7 +12297,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>93</v>
       </c>
@@ -11925,7 +12311,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>94</v>
       </c>
@@ -11939,7 +12325,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>95</v>
       </c>
@@ -11953,7 +12339,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>96</v>
       </c>
@@ -11967,7 +12353,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>97</v>
       </c>
@@ -11981,7 +12367,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>98</v>
       </c>
@@ -11995,7 +12381,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>99</v>
       </c>
@@ -12009,7 +12395,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>89</v>
       </c>
@@ -12023,7 +12409,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>90</v>
       </c>
@@ -12037,7 +12423,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>100</v>
       </c>
@@ -12051,7 +12437,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>101</v>
       </c>
@@ -12065,7 +12451,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>102</v>
       </c>
@@ -12079,7 +12465,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>103</v>
       </c>
@@ -12093,7 +12479,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>104</v>
       </c>
@@ -12107,7 +12493,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
@@ -12121,19 +12507,19 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -12146,29 +12532,29 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="55" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
@@ -12184,25 +12570,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="21.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -12212,75 +12598,75 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="56" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="55" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -12288,12 +12674,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -12312,7 +12698,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>133</v>
       </c>
@@ -12322,7 +12708,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>154</v>
       </c>
@@ -12332,7 +12718,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>134</v>
       </c>
@@ -12344,7 +12730,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>135</v>
       </c>
@@ -12356,7 +12742,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>136</v>
       </c>
@@ -12368,7 +12754,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>137</v>
       </c>
@@ -12380,7 +12766,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>138</v>
       </c>
@@ -12392,7 +12778,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>139</v>
       </c>
@@ -12404,7 +12790,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>140</v>
       </c>
@@ -12416,7 +12802,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>141</v>
       </c>
@@ -12428,7 +12814,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>142</v>
       </c>
@@ -12440,7 +12826,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>143</v>
       </c>
@@ -12452,7 +12838,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>144</v>
       </c>
@@ -12464,7 +12850,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>145</v>
       </c>
@@ -12476,7 +12862,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>146</v>
       </c>
@@ -12488,7 +12874,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>147</v>
       </c>
@@ -12500,7 +12886,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>148</v>
       </c>
@@ -12512,7 +12898,7 @@
       <c r="E35" s="24"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>149</v>
       </c>
@@ -12526,7 +12912,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>146</v>
       </c>
@@ -12540,7 +12926,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>150</v>
       </c>
@@ -12554,7 +12940,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>151</v>
       </c>
@@ -12566,7 +12952,7 @@
       <c r="E39" s="24"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>152</v>
       </c>
@@ -12578,7 +12964,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>153</v>
       </c>
@@ -12590,7 +12976,7 @@
       <c r="E41" s="24"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>147</v>
       </c>
@@ -12602,11 +12988,11 @@
       <c r="E42" s="24"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -12619,34 +13005,34 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="55" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>179</v>
       </c>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B82D6-C873-224E-B93A-23748B176B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399678D2-4A0A-E642-86B7-E1205EAD7722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,6 +1238,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,8 +1262,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4988,13 +4997,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5469,11 +5478,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -5529,13 +5538,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5847,11 +5856,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -5906,13 +5915,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6190,11 +6199,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -6249,13 +6258,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6525,11 +6534,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -6584,13 +6593,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6859,11 +6868,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -6919,13 +6928,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7226,11 +7235,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -7285,13 +7294,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7524,11 +7533,11 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7583,13 +7592,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7872,11 +7881,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -7931,13 +7940,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8232,11 +8241,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -8291,13 +8300,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8654,11 +8663,11 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="3" t="s">
         <v>72</v>
       </c>
@@ -8708,13 +8717,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8793,12 +8802,12 @@
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="45"/>
       <c r="G18" s="26"/>
     </row>
@@ -8806,40 +8815,40 @@
       <c r="A19" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -8995,11 +9004,11 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="3" t="s">
         <v>72</v>
       </c>
@@ -9029,7 +9038,7 @@
   <dimension ref="A6:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9054,13 +9063,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -9135,25 +9144,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="76" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9165,7 +9174,8 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -9176,10 +9186,11 @@
       <c r="D20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -9187,13 +9198,14 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -9201,13 +9213,14 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
@@ -9215,16 +9228,16 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="68">
         <v>4</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="12">
         <v>6</v>
       </c>
     </row>
@@ -9234,16 +9247,16 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="68">
         <v>1</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="12">
         <v>3</v>
       </c>
     </row>
@@ -9253,16 +9266,16 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="68">
         <v>0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="12">
         <v>1</v>
       </c>
     </row>
@@ -9272,16 +9285,16 @@
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="68">
         <v>50</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="12">
         <v>70</v>
       </c>
     </row>
@@ -9291,16 +9304,16 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="68">
         <v>25</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="12">
         <v>35</v>
       </c>
     </row>
@@ -9313,13 +9326,13 @@
       <c r="D28" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="68">
         <v>4</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="12">
         <v>6</v>
       </c>
     </row>
@@ -9332,13 +9345,13 @@
       <c r="D29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="68">
         <v>1</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="12">
         <v>2</v>
       </c>
     </row>
@@ -9351,13 +9364,13 @@
       <c r="D30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="68">
         <v>0</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="12">
         <v>1</v>
       </c>
     </row>
@@ -9370,13 +9383,13 @@
       <c r="D31" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="68">
         <v>3900000</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="12">
         <v>4800000</v>
       </c>
     </row>
@@ -9389,13 +9402,13 @@
       <c r="D32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="75">
         <v>11.4</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="75">
         <v>15.1</v>
       </c>
     </row>
@@ -9408,13 +9421,13 @@
       <c r="D33" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="68">
         <v>40</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="12">
         <v>42</v>
       </c>
     </row>
@@ -9424,16 +9437,16 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="68">
         <v>80</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="12">
         <v>100</v>
       </c>
     </row>
@@ -9446,13 +9459,13 @@
       <c r="D35" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="68">
         <v>26</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="12">
         <v>34</v>
       </c>
     </row>
@@ -9462,16 +9475,16 @@
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="68">
         <v>31</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="12">
         <v>35</v>
       </c>
     </row>
@@ -9484,13 +9497,13 @@
       <c r="D37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="68">
         <v>10</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9500,16 +9513,16 @@
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="68">
         <v>37</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="12">
         <v>46</v>
       </c>
     </row>
@@ -9519,16 +9532,16 @@
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="68">
         <v>150000</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="12">
         <v>400000</v>
       </c>
     </row>
@@ -9541,13 +9554,13 @@
       <c r="D40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="68">
         <v>7</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9560,13 +9573,13 @@
       <c r="D41" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="68">
         <v>10</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="12">
         <v>18</v>
       </c>
     </row>
@@ -9576,16 +9589,16 @@
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="75">
         <v>0.2</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="75">
         <v>0.5</v>
       </c>
     </row>
@@ -9596,10 +9609,11 @@
       <c r="B43" s="14"/>
       <c r="C43" s="12"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
@@ -9639,11 +9653,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -9771,13 +9785,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10252,11 +10266,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -10311,13 +10325,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10792,11 +10806,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -10851,13 +10865,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -11234,11 +11248,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -11288,13 +11302,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -11671,11 +11685,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -11725,13 +11739,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12108,11 +12122,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -12162,13 +12176,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12545,11 +12559,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -12599,13 +12613,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -13018,11 +13032,11 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
       <c r="E48" s="3" t="s">
         <v>72</v>
       </c>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399678D2-4A0A-E642-86B7-E1205EAD7722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEFED0-66EB-B743-9642-0E7845277041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DL Laki - laki dewasa" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="269">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -1060,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,6 +1244,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1261,12 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4971,8 +4974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4997,13 +5000,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5093,8 +5096,12 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
@@ -5104,7 +5111,8 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -5118,7 +5126,8 @@
       <c r="E20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -5132,7 +5141,8 @@
       <c r="E21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
@@ -5146,7 +5156,8 @@
       <c r="E22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
@@ -5160,7 +5171,12 @@
       <c r="E23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="69">
+        <v>4</v>
+      </c>
+      <c r="G23" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
@@ -5174,7 +5190,12 @@
       <c r="E24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="69">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
@@ -5188,7 +5209,12 @@
       <c r="E25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="69">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
@@ -5202,7 +5228,12 @@
       <c r="E26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="69">
+        <v>50</v>
+      </c>
+      <c r="G26" s="12">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
@@ -5216,7 +5247,12 @@
       <c r="E27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="69">
+        <v>25</v>
+      </c>
+      <c r="G27" s="12">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
@@ -5230,7 +5266,12 @@
       <c r="E28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="69">
+        <v>4</v>
+      </c>
+      <c r="G28" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
@@ -5244,7 +5285,12 @@
       <c r="E29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="69">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
@@ -5258,7 +5304,12 @@
       <c r="E30" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="69">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
@@ -5272,7 +5323,12 @@
       <c r="E31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="69">
+        <v>4300000</v>
+      </c>
+      <c r="G31" s="12">
+        <v>5900000</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
@@ -5286,9 +5342,14 @@
       <c r="E32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="69">
+        <v>13.4</v>
+      </c>
+      <c r="G32" s="12">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>29</v>
       </c>
@@ -5300,9 +5361,14 @@
       <c r="E33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F33" s="69">
+        <v>45</v>
+      </c>
+      <c r="G33" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
@@ -5314,9 +5380,14 @@
       <c r="E34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F34" s="69">
+        <v>80</v>
+      </c>
+      <c r="G34" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
@@ -5328,9 +5399,14 @@
       <c r="E35" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F35" s="69">
+        <v>26</v>
+      </c>
+      <c r="G35" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>32</v>
       </c>
@@ -5342,9 +5418,14 @@
       <c r="E36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="69">
+        <v>31</v>
+      </c>
+      <c r="G36" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
@@ -5356,9 +5437,14 @@
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F37" s="69">
+        <v>10</v>
+      </c>
+      <c r="G37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -5370,9 +5456,14 @@
       <c r="E38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="69">
+        <v>37</v>
+      </c>
+      <c r="G38" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -5384,9 +5475,14 @@
       <c r="E39" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F39" s="69">
+        <v>150000</v>
+      </c>
+      <c r="G39" s="12">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>36</v>
       </c>
@@ -5398,9 +5494,14 @@
       <c r="E40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F40" s="69">
+        <v>7</v>
+      </c>
+      <c r="G40" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
@@ -5412,9 +5513,14 @@
       <c r="E41" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F41" s="69">
+        <v>10</v>
+      </c>
+      <c r="G41" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
@@ -5426,9 +5532,14 @@
       <c r="E42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F42" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>39</v>
       </c>
@@ -5438,21 +5549,22 @@
       <c r="E43" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="69"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -5465,7 +5577,7 @@
       </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
@@ -5478,11 +5590,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -5538,13 +5650,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5856,11 +5968,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -5915,13 +6027,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6199,11 +6311,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -6258,13 +6370,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6534,11 +6646,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -6593,13 +6705,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6868,11 +6980,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -6928,13 +7040,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7235,11 +7347,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -7294,13 +7406,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7533,11 +7645,11 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7592,13 +7704,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7881,11 +7993,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -7940,13 +8052,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8241,11 +8353,11 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
@@ -8300,13 +8412,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8663,11 +8775,11 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="3" t="s">
         <v>72</v>
       </c>
@@ -8717,13 +8829,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8802,12 +8914,12 @@
       <c r="A18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="45"/>
       <c r="G18" s="26"/>
     </row>
@@ -8815,40 +8927,40 @@
       <c r="A19" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -9004,11 +9116,11 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="3" t="s">
         <v>72</v>
       </c>
@@ -9037,8 +9149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9063,13 +9175,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -9159,10 +9271,10 @@
       <c r="E18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="71" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9405,10 +9517,10 @@
       <c r="E32" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="75">
+      <c r="F32" s="70">
         <v>11.4</v>
       </c>
-      <c r="G32" s="75">
+      <c r="G32" s="70">
         <v>15.1</v>
       </c>
     </row>
@@ -9595,10 +9707,10 @@
       <c r="E42" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="75">
+      <c r="F42" s="70">
         <v>0.2</v>
       </c>
-      <c r="G42" s="75">
+      <c r="G42" s="70">
         <v>0.5</v>
       </c>
     </row>
@@ -9653,11 +9765,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -9785,13 +9897,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10266,11 +10378,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -10325,13 +10437,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10806,11 +10918,11 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="3" t="s">
         <v>72</v>
       </c>
@@ -10865,13 +10977,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -11248,11 +11360,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -11302,13 +11414,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -11685,11 +11797,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -11739,13 +11851,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12122,11 +12234,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -12176,13 +12288,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12559,11 +12671,11 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="3" t="s">
         <v>72</v>
       </c>
@@ -12613,13 +12725,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -13032,11 +13144,11 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="3" t="s">
         <v>72</v>
       </c>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,36 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0090023E-019B-E14F-ADC4-8770EBBBEB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55C75A5-56D2-1A49-A5EF-3E48D4B33E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DL neonatus" sheetId="3" r:id="rId1"/>
-    <sheet name="DL anak - anak" sheetId="4" r:id="rId2"/>
-    <sheet name="Kimia Klinik laki2 dewasa " sheetId="5" r:id="rId3"/>
-    <sheet name="Kimia Klinik Perempuan Dewasa" sheetId="6" r:id="rId4"/>
-    <sheet name="Kimia Klinik neonatus" sheetId="7" r:id="rId5"/>
-    <sheet name="Kimia Klinik Anak" sheetId="8" r:id="rId6"/>
-    <sheet name="Urine lengkap" sheetId="9" r:id="rId7"/>
-    <sheet name="Faeces lengkap" sheetId="10" r:id="rId8"/>
-    <sheet name="Widal " sheetId="11" r:id="rId9"/>
-    <sheet name="BT, CT" sheetId="12" r:id="rId10"/>
-    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId11"/>
-    <sheet name="BGA" sheetId="14" r:id="rId12"/>
-    <sheet name="HIV" sheetId="15" r:id="rId13"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId14"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId15"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId16"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId17"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId18"/>
+    <sheet name="DL anak - anak" sheetId="4" r:id="rId1"/>
+    <sheet name="Kimia Klinik laki2 dewasa " sheetId="5" r:id="rId2"/>
+    <sheet name="Kimia Klinik Perempuan Dewasa" sheetId="6" r:id="rId3"/>
+    <sheet name="Kimia Klinik neonatus" sheetId="7" r:id="rId4"/>
+    <sheet name="Kimia Klinik Anak" sheetId="8" r:id="rId5"/>
+    <sheet name="Urine lengkap" sheetId="9" r:id="rId6"/>
+    <sheet name="Faeces lengkap" sheetId="10" r:id="rId7"/>
+    <sheet name="Widal " sheetId="11" r:id="rId8"/>
+    <sheet name="BT, CT" sheetId="12" r:id="rId9"/>
+    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId10"/>
+    <sheet name="BGA" sheetId="14" r:id="rId11"/>
+    <sheet name="HIV" sheetId="15" r:id="rId12"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId13"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId14"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId15"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId16"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="255">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -189,9 +188,6 @@
     <t>0-1</t>
   </si>
   <si>
-    <t>45 - 47</t>
-  </si>
-  <si>
     <t>150.000-400.000</t>
   </si>
   <si>
@@ -256,15 +252,6 @@
   </si>
   <si>
     <t>ket * = apabila lebih atau kurang dari nilai normal muncul tanda bntang di kolom dekat hasil</t>
-  </si>
-  <si>
-    <t>5.000.000 - 7.000.000</t>
-  </si>
-  <si>
-    <t>13,4 - 19,5</t>
-  </si>
-  <si>
-    <t>5.700 - 18.000</t>
   </si>
   <si>
     <t>4.500 - 11.300</t>
@@ -836,9 +823,6 @@
   </si>
   <si>
     <t>Analisa Patologi Anatomi</t>
-  </si>
-  <si>
-    <t>*nilai normal Darah lengkap neonatus (sampai usia 1 bulan)</t>
   </si>
   <si>
     <t>*nilai normal Darah lengkap anak - anak (usia lebih dari 1 bulan sampai 12 tahun )</t>
@@ -1031,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,9 +1048,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1209,10 +1190,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1264,7 +1245,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1287,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,183 +1403,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4343400" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1775,7 +1579,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1952,7 +1756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2129,7 +1933,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2306,7 +2110,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2483,7 +2287,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2660,7 +2464,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2857,183 +2661,6 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="639943" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -3191,7 +2818,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3368,7 +2995,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3545,7 +3172,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3722,7 +3349,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3899,7 +3526,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4076,7 +3703,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4148,6 +3775,183 @@
         <a:xfrm>
           <a:off x="1219201" y="204787"/>
           <a:ext cx="4181475" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>LABORATORIUM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>RUMAH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>611368</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="180975"/>
+          <a:ext cx="344668" cy="828136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076326</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="204787"/>
+          <a:ext cx="4343400" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4573,11 +4377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4602,13 +4406,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -4679,7 +4483,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4690,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -4699,10 +4503,10 @@
         <v>14</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4721,17 +4525,17 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>75</v>
+      <c r="D20" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2">
-        <v>5700</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="5">
-        <v>18000</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4744,7 +4548,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2">
         <v>3</v>
@@ -4763,7 +4567,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -4782,7 +4586,7 @@
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2">
         <v>4</v>
@@ -4801,7 +4605,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -4820,7 +4624,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -4839,7 +4643,7 @@
         <v>45</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2">
         <v>50</v>
@@ -4858,7 +4662,7 @@
         <v>46</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2">
         <v>25</v>
@@ -4877,7 +4681,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2">
         <v>4</v>
@@ -4896,7 +4700,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -4915,7 +4719,7 @@
         <v>49</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
@@ -4930,17 +4734,17 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="2">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
       <c r="G31" s="5">
-        <v>7000000</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4949,17 +4753,17 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="2">
-        <v>13.4</v>
+        <v>10.5</v>
       </c>
       <c r="G32" s="5">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4968,17 +4772,17 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="18" t="s">
-        <v>50</v>
+      <c r="D33" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G33" s="5">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4988,10 +4792,10 @@
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
       <c r="D34" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2">
         <v>80</v>
@@ -5007,10 +4811,10 @@
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
       <c r="D35" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="2">
         <v>26</v>
@@ -5026,10 +4830,10 @@
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
       <c r="D36" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="2">
         <v>31</v>
@@ -5045,10 +4849,10 @@
       <c r="B37" s="14"/>
       <c r="C37" s="12"/>
       <c r="D37" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="2">
         <v>10</v>
@@ -5064,10 +4868,10 @@
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
       <c r="D38" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2">
         <v>37</v>
@@ -5083,10 +4887,10 @@
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
       <c r="D39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="2">
         <v>150000</v>
@@ -5102,10 +4906,10 @@
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
       <c r="D40" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2">
         <v>7</v>
@@ -5121,10 +4925,10 @@
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
       <c r="D41" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2">
         <v>10</v>
@@ -5140,10 +4944,10 @@
       <c r="B42" s="14"/>
       <c r="C42" s="12"/>
       <c r="D42" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="2">
         <v>0.2</v>
@@ -5160,9 +4964,14 @@
       <c r="C43" s="12"/>
       <c r="D43" s="14"/>
       <c r="E43" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E44" s="8"/>
@@ -5178,14 +4987,14 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="19" t="s">
-        <v>70</v>
+      <c r="E47" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -5203,22 +5012,22 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
       <c r="E51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5232,341 +5041,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -5579,7 +5053,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -5589,20 +5063,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5614,7 +5088,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -5628,7 +5102,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5642,7 +5116,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5656,7 +5130,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -5670,22 +5144,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -5693,152 +5167,152 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="34"/>
+      <c r="A19" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>190</v>
+      <c r="E21" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>186</v>
+      <c r="A22" s="39" t="s">
+        <v>182</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>190</v>
+      <c r="D22" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>186</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="27"/>
-      <c r="D23" s="58"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="26"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="27"/>
-      <c r="D24" s="58"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="26"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
-      <c r="B25" s="27"/>
-      <c r="D25" s="58"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="26"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="27"/>
-      <c r="D26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="26"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="27"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="26"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="27"/>
-      <c r="D28" s="58"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="26"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="27"/>
-      <c r="D29" s="58"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="26"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="27"/>
-      <c r="D30" s="58"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="26"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="27"/>
-      <c r="D31" s="58"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="26"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="27"/>
-      <c r="D32" s="58"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="26"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -5848,13 +5322,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>70</v>
+      <c r="E37" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -5871,23 +5345,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5901,7 +5375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -5914,7 +5388,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -5924,20 +5398,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5949,7 +5423,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -5963,7 +5437,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5977,7 +5451,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5991,7 +5465,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6005,22 +5479,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -6028,184 +5502,184 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="34"/>
+      <c r="A19" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="55"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>62</v>
+      <c r="E26" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="44"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="58"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="58"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="58"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="58"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -6215,13 +5689,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>70</v>
+      <c r="E37" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -6238,23 +5712,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6267,7 +5741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
@@ -6280,7 +5754,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -6290,20 +5764,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6315,7 +5789,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -6329,7 +5803,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6343,7 +5817,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6357,7 +5831,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6371,22 +5845,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -6394,116 +5868,116 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="34"/>
+      <c r="A19" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="39"/>
+        <v>207</v>
+      </c>
+      <c r="E20" s="38"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="39"/>
+      <c r="A21" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="38"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="39"/>
+      <c r="A22" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="38"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="49"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
@@ -6513,13 +5987,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>70</v>
+      <c r="E32" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6536,23 +6010,23 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6565,7 +6039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -6578,7 +6052,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -6588,20 +6062,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6613,7 +6087,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -6627,7 +6101,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6641,7 +6115,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6655,7 +6129,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6669,22 +6143,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -6692,166 +6166,166 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="34"/>
+      <c r="A19" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>216</v>
+      <c r="A20" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>216</v>
+      <c r="E21" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="63"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="49"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="49"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="49"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="49"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -6861,13 +6335,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>70</v>
+      <c r="E37" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -6884,23 +6358,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6913,7 +6387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -6926,7 +6400,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -6936,20 +6410,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6961,7 +6435,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -6975,7 +6449,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6989,7 +6463,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7003,7 +6477,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -7017,22 +6491,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -7040,12 +6514,12 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>218</v>
+      <c r="A19" s="45" t="s">
+        <v>214</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -7054,37 +6528,37 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>219</v>
+      <c r="A20" s="60" t="s">
+        <v>215</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="24"/>
+      <c r="D20" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="23"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>220</v>
+      <c r="A21" s="60" t="s">
+        <v>216</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="24"/>
+      <c r="D21" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
-        <v>221</v>
+      <c r="A22" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="60" t="s">
-        <v>152</v>
+      <c r="D22" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="2"/>
@@ -7092,13 +6566,13 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
-        <v>222</v>
+      <c r="A23" s="60" t="s">
+        <v>218</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="59" t="s">
-        <v>152</v>
+      <c r="D23" s="58" t="s">
+        <v>148</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="2"/>
@@ -7106,13 +6580,13 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
-        <v>223</v>
+      <c r="A24" s="60" t="s">
+        <v>219</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="60" t="s">
-        <v>152</v>
+      <c r="D24" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="2"/>
@@ -7120,13 +6594,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
-        <v>224</v>
+      <c r="A25" s="60" t="s">
+        <v>220</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="60" t="s">
-        <v>152</v>
+      <c r="D25" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
@@ -7134,84 +6608,84 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="49"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="49"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="49"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="49"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -7221,13 +6695,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>70</v>
+      <c r="E37" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -7244,23 +6718,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +6747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -7286,7 +6760,7 @@
     <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="24.33203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="44" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -7296,20 +6770,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7321,7 +6795,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -7335,7 +6809,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -7349,7 +6823,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7363,7 +6837,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -7377,22 +6851,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -7400,51 +6874,51 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="26" t="s">
-        <v>241</v>
+      <c r="F18" s="44"/>
+      <c r="G18" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>225</v>
+      <c r="A19" s="60" t="s">
+        <v>221</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="20" t="s">
-        <v>152</v>
+      <c r="D19" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>226</v>
+      <c r="A20" s="60" t="s">
+        <v>222</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>227</v>
+      <c r="A21" s="60" t="s">
+        <v>223</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
-        <v>228</v>
+      <c r="A22" s="60" t="s">
+        <v>224</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="60" t="s">
-        <v>152</v>
+      <c r="D22" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="2"/>
@@ -7452,13 +6926,13 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
-        <v>229</v>
+      <c r="A23" s="60" t="s">
+        <v>225</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="59" t="s">
-        <v>230</v>
+      <c r="D23" s="58" t="s">
+        <v>226</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="2"/>
@@ -7466,13 +6940,13 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
-        <v>231</v>
+      <c r="A24" s="60" t="s">
+        <v>227</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="60" t="s">
-        <v>232</v>
+      <c r="D24" s="59" t="s">
+        <v>228</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="2"/>
@@ -7480,13 +6954,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
-        <v>233</v>
+      <c r="A25" s="60" t="s">
+        <v>229</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="60" t="s">
-        <v>152</v>
+      <c r="D25" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
@@ -7494,146 +6968,146 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
-        <v>234</v>
+      <c r="A26" s="60" t="s">
+        <v>230</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>235</v>
+      <c r="D26" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
-        <v>236</v>
+      <c r="A27" s="60" t="s">
+        <v>232</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>238</v>
+      <c r="D27" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="61" t="s">
-        <v>239</v>
+      <c r="A28" s="60" t="s">
+        <v>235</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>62</v>
+      <c r="D28" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
-        <v>242</v>
+      <c r="A29" s="60" t="s">
+        <v>238</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="60" t="s">
-        <v>152</v>
+      <c r="D29" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
-        <v>243</v>
+      <c r="A30" s="60" t="s">
+        <v>239</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="60" t="s">
-        <v>152</v>
+      <c r="D30" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
-        <v>257</v>
+      <c r="A31" s="60" t="s">
+        <v>252</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="60" t="s">
-        <v>152</v>
+      <c r="D31" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="49"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="49"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="49"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="49"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="49"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="49"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
@@ -7643,13 +7117,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>70</v>
+      <c r="E41" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -7666,18 +7140,18 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -7690,7 +7164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -7703,7 +7177,7 @@
     <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="24.33203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="44" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -7713,20 +7187,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7738,7 +7212,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -7752,7 +7226,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -7766,7 +7240,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7780,7 +7254,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -7794,187 +7268,187 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="A19" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="A20" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="A21" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="A22" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="65"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="32"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="65"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="65"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="65"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="65"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="65"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="65"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="62"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="62"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="49"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="49"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="49"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -7984,13 +7458,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>70</v>
+      <c r="E39" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -8007,18 +7481,18 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8036,7 +7510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -8051,57 +7525,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8110,11 +7584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A6:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A6:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8139,13 +7613,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8216,7 +7690,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -8227,7 +7701,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -8235,548 +7709,12 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B51:D51"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:H47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
@@ -8787,293 +7725,378 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>82</v>
+      <c r="A20" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="D20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="2">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5">
+        <v>115</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>83</v>
+      <c r="A21" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>84</v>
+      <c r="A22" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="D22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>150</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>85</v>
+      <c r="A23" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>86</v>
+      <c r="A24" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="D24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>87</v>
+      <c r="A25" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="D25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>88</v>
+      <c r="A26" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="D26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>89</v>
+      <c r="A27" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="D27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>90</v>
+      <c r="A28" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="D28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>80</v>
+      <c r="A29" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="D29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>81</v>
+      <c r="A30" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="D30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>91</v>
+      <c r="A31" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="D31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G31" s="5">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>92</v>
+      <c r="A32" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>93</v>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>94</v>
+      <c r="F33" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>95</v>
+      <c r="D34" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="2">
+        <v>14</v>
+      </c>
+      <c r="G34" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>96</v>
+      <c r="D35" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G35" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G36" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="19" t="s">
-        <v>70</v>
+      <c r="E40" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9086,7 +8109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
@@ -9116,13 +8139,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -9193,7 +8216,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -9204,7 +8227,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -9224,240 +8247,240 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>82</v>
+      <c r="A20" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>112</v>
+      <c r="D20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>83</v>
+      <c r="A21" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>112</v>
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>84</v>
+      <c r="A22" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>112</v>
+      <c r="D22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>85</v>
+      <c r="A23" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>112</v>
+      <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>86</v>
+      <c r="A24" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>112</v>
+      <c r="D24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>87</v>
+      <c r="A25" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>112</v>
+      <c r="D25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>88</v>
+      <c r="A26" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>112</v>
+      <c r="D26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>89</v>
+      <c r="A27" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>112</v>
+      <c r="D27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>90</v>
+      <c r="A28" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>112</v>
+      <c r="D28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>80</v>
+      <c r="A29" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>113</v>
+      <c r="D29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>81</v>
+      <c r="A30" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>113</v>
+      <c r="D30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>91</v>
+      <c r="A31" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>63</v>
+      <c r="D31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>92</v>
+      <c r="A32" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>63</v>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>93</v>
+      <c r="A33" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>112</v>
       </c>
+      <c r="E33" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>94</v>
+      <c r="A34" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>112</v>
+      <c r="D34" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>95</v>
+      <c r="A35" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>112</v>
+      <c r="D35" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>96</v>
+      <c r="A36" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>112</v>
+      <c r="D36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -9475,14 +8498,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="19" t="s">
-        <v>70</v>
+      <c r="E40" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -9500,17 +8523,17 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9523,7 +8546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
@@ -9553,13 +8576,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -9630,7 +8653,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -9641,7 +8664,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -9661,240 +8684,240 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>82</v>
+      <c r="A20" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>112</v>
+      <c r="D20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>83</v>
+      <c r="A21" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>112</v>
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>84</v>
+      <c r="A22" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>112</v>
+      <c r="D22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>85</v>
+      <c r="A23" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>112</v>
+      <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>86</v>
+      <c r="A24" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>112</v>
+      <c r="D24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>87</v>
+      <c r="A25" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>112</v>
+      <c r="D25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>88</v>
+      <c r="A26" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>112</v>
+      <c r="D26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>89</v>
+      <c r="A27" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>112</v>
+      <c r="D27" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>90</v>
+      <c r="A28" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>112</v>
+      <c r="D28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>80</v>
+      <c r="A29" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>113</v>
+      <c r="D29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>81</v>
+      <c r="A30" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>113</v>
+      <c r="D30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>91</v>
+      <c r="A31" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>63</v>
+      <c r="D31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>92</v>
+      <c r="A32" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>63</v>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>93</v>
+      <c r="A33" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>112</v>
+      <c r="D33" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>94</v>
+      <c r="A34" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>112</v>
+      <c r="D34" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>95</v>
+      <c r="A35" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>112</v>
+      <c r="D35" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>96</v>
+      <c r="A36" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>112</v>
+      <c r="D36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -9912,14 +8935,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="19" t="s">
-        <v>70</v>
+      <c r="E40" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -9937,17 +8960,17 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9960,7 +8983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
@@ -9990,13 +9013,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10067,7 +9090,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -10078,7 +9101,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -10098,240 +9121,240 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>82</v>
+      <c r="A20" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>112</v>
+      <c r="D20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>83</v>
+      <c r="A21" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>112</v>
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>84</v>
+      <c r="A22" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>112</v>
+      <c r="D22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>85</v>
+      <c r="A23" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>112</v>
+      <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>86</v>
+      <c r="A24" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>112</v>
+      <c r="D24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>87</v>
+      <c r="A25" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>112</v>
+      <c r="D25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>88</v>
+      <c r="A26" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>112</v>
+      <c r="D26" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>89</v>
+      <c r="A27" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>112</v>
+      <c r="D27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>90</v>
+      <c r="A28" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>112</v>
+      <c r="D28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>80</v>
+      <c r="A29" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>113</v>
+      <c r="D29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>81</v>
+      <c r="A30" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>113</v>
+      <c r="D30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>91</v>
+      <c r="A31" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>63</v>
+      <c r="D31" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>92</v>
+      <c r="A32" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>63</v>
+      <c r="D32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>93</v>
+      <c r="A33" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>112</v>
+      <c r="D33" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>94</v>
+      <c r="A34" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>112</v>
+      <c r="D34" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>95</v>
+      <c r="A35" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>112</v>
+      <c r="D35" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>96</v>
+      <c r="A36" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>112</v>
+      <c r="D36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -10349,14 +9372,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="19" t="s">
-        <v>70</v>
+      <c r="E40" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -10374,17 +9397,17 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
       <c r="E44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -10397,7 +9420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
@@ -10420,20 +9443,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10445,7 +9468,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -10459,7 +9482,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -10473,7 +9496,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -10487,7 +9510,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -10504,7 +9527,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -10515,7 +9538,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -10527,8 +9550,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>124</v>
+      <c r="A19" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -10537,283 +9560,283 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>145</v>
+      <c r="A20" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>125</v>
+      <c r="A21" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="24"/>
+      <c r="D21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>126</v>
+      <c r="A22" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="24"/>
+      <c r="D22" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>127</v>
+      <c r="A23" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="24"/>
+      <c r="D23" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="23"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>128</v>
+      <c r="A24" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="24"/>
+      <c r="D24" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="23"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>129</v>
+      <c r="A25" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="24"/>
+      <c r="D25" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="23"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>130</v>
+      <c r="A26" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="24"/>
+      <c r="D26" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="23"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>131</v>
+      <c r="A27" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="24"/>
+      <c r="D27" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="23"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>132</v>
+      <c r="A28" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="24"/>
+      <c r="D28" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="23"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>133</v>
+      <c r="A29" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="24"/>
+      <c r="D29" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="23"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>134</v>
+      <c r="A30" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="24"/>
+      <c r="D30" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="23"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>135</v>
+      <c r="A31" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="24"/>
+      <c r="D31" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="23"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>136</v>
+      <c r="A32" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="32"/>
+      <c r="D32" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>137</v>
+      <c r="A33" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="24"/>
+      <c r="D33" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="23"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>138</v>
+      <c r="A34" s="28" t="s">
+        <v>134</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="24"/>
+      <c r="D34" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="23"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>139</v>
+      <c r="A35" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="24"/>
+      <c r="D35" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="23"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>140</v>
+      <c r="A36" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>153</v>
+      <c r="D36" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>137</v>
+      <c r="A37" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>153</v>
+      <c r="D37" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>141</v>
+      <c r="A38" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>153</v>
+      <c r="D38" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>142</v>
+      <c r="A39" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="24"/>
+      <c r="D39" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="23"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>143</v>
+      <c r="A40" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="24"/>
+      <c r="D40" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="23"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>144</v>
+      <c r="A41" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="24"/>
+      <c r="D41" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="23"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>138</v>
+      <c r="A42" s="28" t="s">
+        <v>134</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="24"/>
+      <c r="D42" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="23"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -10822,14 +9845,14 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="19" t="s">
-        <v>70</v>
+      <c r="D44" s="22"/>
+      <c r="E44" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F44" s="8"/>
     </row>
@@ -10847,22 +9870,22 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="67"/>
       <c r="D48" s="67"/>
       <c r="E48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -10875,7 +9898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -10898,20 +9921,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10923,7 +9946,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -10937,7 +9960,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -10951,7 +9974,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -10965,7 +9988,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -10982,18 +10005,18 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -11005,192 +10028,192 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="34"/>
+      <c r="A19" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="39"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="41" t="s">
-        <v>152</v>
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40" t="s">
+        <v>148</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="39"/>
+      <c r="A29" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="38"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="39"/>
+      <c r="A30" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="38"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" s="39"/>
+      <c r="A31" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="38"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="39"/>
+      <c r="A32" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -11200,13 +10223,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>70</v>
+      <c r="E37" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -11223,23 +10246,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -11252,7 +10275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -11275,20 +10298,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -11300,7 +10323,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -11314,7 +10337,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -11328,7 +10351,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -11342,7 +10365,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -11356,22 +10379,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -11383,157 +10406,157 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="34"/>
+      <c r="A19" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="33"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
-        <v>177</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="27"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="26"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="27"/>
-      <c r="D27" s="49"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="26"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="27"/>
-      <c r="D28" s="49"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="26"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="27"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="26"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="27"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="26"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="27"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="26"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="27"/>
-      <c r="D32" s="49"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="26"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="49"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -11543,13 +10566,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>70</v>
+      <c r="E37" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -11566,23 +10589,358 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A6:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,35 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55C75A5-56D2-1A49-A5EF-3E48D4B33E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009CFDD-DD6E-A544-B27F-CF6A624191BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DL anak - anak" sheetId="4" r:id="rId1"/>
-    <sheet name="Kimia Klinik laki2 dewasa " sheetId="5" r:id="rId2"/>
-    <sheet name="Kimia Klinik Perempuan Dewasa" sheetId="6" r:id="rId3"/>
-    <sheet name="Kimia Klinik neonatus" sheetId="7" r:id="rId4"/>
-    <sheet name="Kimia Klinik Anak" sheetId="8" r:id="rId5"/>
-    <sheet name="Urine lengkap" sheetId="9" r:id="rId6"/>
-    <sheet name="Faeces lengkap" sheetId="10" r:id="rId7"/>
-    <sheet name="Widal " sheetId="11" r:id="rId8"/>
-    <sheet name="BT, CT" sheetId="12" r:id="rId9"/>
-    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId10"/>
-    <sheet name="BGA" sheetId="14" r:id="rId11"/>
-    <sheet name="HIV" sheetId="15" r:id="rId12"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId13"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId14"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId15"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId16"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId17"/>
+    <sheet name="Kimia Klinik laki2 dewasa " sheetId="5" r:id="rId1"/>
+    <sheet name="Kimia Klinik Perempuan Dewasa" sheetId="6" r:id="rId2"/>
+    <sheet name="Kimia Klinik neonatus" sheetId="7" r:id="rId3"/>
+    <sheet name="Kimia Klinik Anak" sheetId="8" r:id="rId4"/>
+    <sheet name="Urine lengkap" sheetId="9" r:id="rId5"/>
+    <sheet name="Faeces lengkap" sheetId="10" r:id="rId6"/>
+    <sheet name="Widal " sheetId="11" r:id="rId7"/>
+    <sheet name="BT, CT" sheetId="12" r:id="rId8"/>
+    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId9"/>
+    <sheet name="BGA" sheetId="14" r:id="rId10"/>
+    <sheet name="HIV" sheetId="15" r:id="rId11"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId12"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId13"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId14"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId15"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="202">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -83,156 +82,12 @@
     <t>Satuan</t>
   </si>
   <si>
-    <t>DarahLengkap</t>
-  </si>
-  <si>
-    <t>Leukosit</t>
-  </si>
-  <si>
-    <t>Neutrofil#</t>
-  </si>
-  <si>
-    <t>Limfosit#</t>
-  </si>
-  <si>
-    <t>Monosit#</t>
-  </si>
-  <si>
-    <t>Eosinofil#</t>
-  </si>
-  <si>
-    <t>Basofil#</t>
-  </si>
-  <si>
-    <t>Neutrofil(%)</t>
-  </si>
-  <si>
-    <t>Limfosit (%)</t>
-  </si>
-  <si>
-    <t>Monosit(%)</t>
-  </si>
-  <si>
-    <t>Eosinofil(%)</t>
-  </si>
-  <si>
-    <t>Basofil(%)</t>
-  </si>
-  <si>
-    <t>Eritrosit(RBC)</t>
-  </si>
-  <si>
-    <t>Hemoglobin</t>
-  </si>
-  <si>
-    <t>Hematrokit (PCV)</t>
-  </si>
-  <si>
-    <t>MCV</t>
-  </si>
-  <si>
-    <t>MCH</t>
-  </si>
-  <si>
-    <t>MCHC</t>
-  </si>
-  <si>
-    <t>RDW - CV</t>
-  </si>
-  <si>
-    <t>RDW -SD</t>
-  </si>
-  <si>
-    <t>Platelet(PLT)</t>
-  </si>
-  <si>
-    <t>MPV</t>
-  </si>
-  <si>
-    <t>PDW</t>
-  </si>
-  <si>
-    <t>PCT</t>
-  </si>
-  <si>
-    <t>NLR</t>
-  </si>
-  <si>
-    <t>3,0-5,0</t>
-  </si>
-  <si>
-    <t>1,0-5,0</t>
-  </si>
-  <si>
-    <t>4,0-6,0</t>
-  </si>
-  <si>
-    <t>1,0-3,0</t>
-  </si>
-  <si>
-    <t>0,0-1,0</t>
-  </si>
-  <si>
-    <t>50-70</t>
-  </si>
-  <si>
-    <t>25-35</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>150.000-400.000</t>
-  </si>
-  <si>
-    <t>80 - 100</t>
-  </si>
-  <si>
-    <t>26 - 34</t>
-  </si>
-  <si>
-    <t>31 - 35</t>
-  </si>
-  <si>
-    <t>10 - 16</t>
-  </si>
-  <si>
-    <t>37 - 46</t>
-  </si>
-  <si>
-    <t>0,2 - 0,5</t>
-  </si>
-  <si>
-    <t>7 - 11</t>
-  </si>
-  <si>
-    <t>10- 18</t>
-  </si>
-  <si>
-    <t>/uL</t>
-  </si>
-  <si>
-    <t>10^3/uL</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
     <t>g/dL</t>
   </si>
   <si>
-    <t>fL</t>
-  </si>
-  <si>
-    <t>pg</t>
-  </si>
-  <si>
     <t>Catatan :</t>
   </si>
   <si>
@@ -252,18 +107,6 @@
   </si>
   <si>
     <t>ket * = apabila lebih atau kurang dari nilai normal muncul tanda bntang di kolom dekat hasil</t>
-  </si>
-  <si>
-    <t>4.500 - 11.300</t>
-  </si>
-  <si>
-    <t>4.000.000 - 5.400.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,5 - 13,5 </t>
-  </si>
-  <si>
-    <t>30 - 40</t>
   </si>
   <si>
     <t>SGOT</t>
@@ -823,9 +666,6 @@
   </si>
   <si>
     <t>Analisa Patologi Anatomi</t>
-  </si>
-  <si>
-    <t>*nilai normal Darah lengkap anak - anak (usia lebih dari 1 bulan sampai 12 tahun )</t>
   </si>
   <si>
     <t>Darah Lengkap</t>
@@ -1015,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,9 +885,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1245,7 +1082,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1124,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,183 +1240,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1756,7 +1416,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1933,7 +1593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2110,7 +1770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2287,7 +1947,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2464,7 +2124,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2661,183 +2321,6 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="639943" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -2995,7 +2478,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3172,7 +2655,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3349,7 +2832,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3526,7 +3009,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3703,7 +3186,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3880,7 +3363,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3952,6 +3435,183 @@
         <a:xfrm>
           <a:off x="1219201" y="204787"/>
           <a:ext cx="4343400" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>LABORATORIUM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>RUMAH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>611368</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="180975"/>
+          <a:ext cx="344668" cy="828136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076326</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="204787"/>
+          <a:ext cx="4181475" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4377,11 +4037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A6:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A6:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4406,13 +4066,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -4483,7 +4143,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4494,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -4503,16 +4163,14 @@
         <v>14</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -4520,520 +4178,384 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>16</v>
+      <c r="A20" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>59</v>
+      <c r="D20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="2">
-        <v>4500</v>
+        <v>75</v>
       </c>
       <c r="G20" s="5">
-        <v>11300</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>17</v>
+      <c r="A21" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>60</v>
+      <c r="D21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F21" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G21" s="5">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>18</v>
+      <c r="A22" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>60</v>
+      <c r="D22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="5">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>19</v>
+      <c r="A23" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>60</v>
+      <c r="D23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="5">
-        <v>6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>20</v>
+      <c r="A24" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>60</v>
+      <c r="D24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="5">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>21</v>
+      <c r="A25" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
+      <c r="D25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="5">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>22</v>
+      <c r="A26" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>61</v>
+      <c r="D26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="2">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="5">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>23</v>
+      <c r="A27" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>61</v>
+      <c r="D27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G27" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>24</v>
+      <c r="A28" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>61</v>
+      <c r="D28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F28" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>25</v>
+      <c r="A29" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>61</v>
+      <c r="D29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G29" s="5">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>26</v>
+      <c r="A30" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>61</v>
+      <c r="D30" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>27</v>
+      <c r="A31" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>59</v>
+      <c r="D31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="2">
-        <v>4000000</v>
+        <v>3.4</v>
       </c>
       <c r="G31" s="5">
-        <v>5400000</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>28</v>
+      <c r="A32" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>62</v>
+      <c r="D32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="2">
-        <v>10.5</v>
+        <v>6.1</v>
       </c>
       <c r="G32" s="5">
-        <v>13.5</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>29</v>
+      <c r="A33" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>61</v>
+      <c r="D33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F33" s="2">
-        <v>30</v>
+        <v>0.9</v>
       </c>
       <c r="G33" s="5">
-        <v>40</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>30</v>
+      <c r="A34" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>63</v>
+      <c r="D34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F34" s="2">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G34" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>31</v>
+      <c r="A35" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>64</v>
+      <c r="D35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="2">
-        <v>26</v>
+        <v>4.7</v>
       </c>
       <c r="G35" s="5">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>32</v>
+      <c r="A36" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>62</v>
+      <c r="D36" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F36" s="2">
-        <v>31</v>
+        <v>3.4</v>
       </c>
       <c r="G36" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="2">
-        <v>10</v>
-      </c>
-      <c r="G37" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="2">
-        <v>37</v>
-      </c>
-      <c r="G38" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G39" s="5">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="2">
         <v>7</v>
       </c>
-      <c r="G40" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="2">
-        <v>10</v>
-      </c>
-      <c r="G41" s="5">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="B44" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>166</v>
+      <c r="A47" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5041,341 +4563,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="54"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="26"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="26"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="26"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="26"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="26"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="26"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="26"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="26"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="26"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="26"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -5388,7 +4575,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="43" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -5398,20 +4585,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5423,7 +4610,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -5437,7 +4624,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5451,7 +4638,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5465,7 +4652,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -5479,22 +4666,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -5502,184 +4689,184 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="33"/>
+      <c r="A19" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="32"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="55"/>
+      <c r="A20" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="54"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>190</v>
+      <c r="A21" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>190</v>
+      <c r="A22" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>186</v>
+      <c r="A23" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>186</v>
+      <c r="A24" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>186</v>
+      <c r="A25" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>61</v>
+      <c r="A26" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="43"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="57"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="57"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="57"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="57"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="57"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="43"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="43"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -5689,13 +4876,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -5712,23 +4899,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5741,7 +4928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
@@ -5754,7 +4941,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="43" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -5764,20 +4951,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5789,7 +4976,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -5803,7 +4990,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5817,7 +5004,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5831,7 +5018,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -5845,22 +5032,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -5868,116 +5055,116 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="33"/>
+      <c r="A19" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="32"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="38"/>
+        <v>155</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="38"/>
+      <c r="A21" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="37"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="38"/>
+      <c r="A22" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="37"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="48"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
@@ -5987,13 +5174,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -6010,23 +5197,23 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
+      <c r="B36" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6039,7 +5226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -6052,7 +5239,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="43" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -6062,20 +5249,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6087,7 +5274,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -6101,7 +5288,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6115,7 +5302,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6129,7 +5316,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6143,22 +5330,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -6166,166 +5353,166 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="33"/>
+      <c r="A19" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="32"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>212</v>
+      <c r="A20" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>160</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>212</v>
+      <c r="A21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>160</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="48"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -6335,13 +5522,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -6358,23 +5545,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6387,7 +5574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -6400,7 +5587,7 @@
     <col min="1" max="1" width="21" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="43" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -6410,20 +5597,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6435,7 +5622,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -6449,7 +5636,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6463,7 +5650,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6477,7 +5664,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6491,22 +5678,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -6514,12 +5701,12 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>214</v>
+      <c r="A19" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -6528,37 +5715,37 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
-        <v>215</v>
+      <c r="A20" s="59" t="s">
+        <v>163</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="23"/>
+      <c r="D20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="22"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
-        <v>216</v>
+      <c r="A21" s="59" t="s">
+        <v>164</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="23"/>
+      <c r="D21" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="22"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
-        <v>217</v>
+      <c r="A22" s="59" t="s">
+        <v>165</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="59" t="s">
-        <v>148</v>
+      <c r="D22" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="2"/>
@@ -6566,13 +5753,13 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>218</v>
+      <c r="A23" s="59" t="s">
+        <v>166</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="58" t="s">
-        <v>148</v>
+      <c r="D23" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="2"/>
@@ -6580,13 +5767,13 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
-        <v>219</v>
+      <c r="A24" s="59" t="s">
+        <v>167</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="59" t="s">
-        <v>148</v>
+      <c r="D24" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="2"/>
@@ -6594,13 +5781,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>220</v>
+      <c r="A25" s="59" t="s">
+        <v>168</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="59" t="s">
-        <v>148</v>
+      <c r="D25" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
@@ -6608,84 +5795,84 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="48"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -6695,13 +5882,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -6718,23 +5905,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6747,7 +5934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -6760,7 +5947,7 @@
     <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="24.33203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="43" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -6770,20 +5957,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -6795,7 +5982,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -6809,7 +5996,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6823,7 +6010,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6837,7 +6024,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6851,22 +6038,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -6874,51 +6061,51 @@
       <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="25" t="s">
-        <v>237</v>
+      <c r="F18" s="43"/>
+      <c r="G18" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>221</v>
+      <c r="A19" s="59" t="s">
+        <v>169</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="19" t="s">
-        <v>148</v>
+      <c r="D19" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
-        <v>222</v>
+      <c r="A20" s="59" t="s">
+        <v>170</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
-        <v>223</v>
+      <c r="A21" s="59" t="s">
+        <v>171</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
-        <v>224</v>
+      <c r="A22" s="59" t="s">
+        <v>172</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="59" t="s">
-        <v>148</v>
+      <c r="D22" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="2"/>
@@ -6926,13 +6113,13 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>225</v>
+      <c r="A23" s="59" t="s">
+        <v>173</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="58" t="s">
-        <v>226</v>
+      <c r="D23" s="57" t="s">
+        <v>174</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="2"/>
@@ -6940,13 +6127,13 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
-        <v>227</v>
+      <c r="A24" s="59" t="s">
+        <v>175</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="59" t="s">
-        <v>228</v>
+      <c r="D24" s="58" t="s">
+        <v>176</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="2"/>
@@ -6954,13 +6141,13 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>229</v>
+      <c r="A25" s="59" t="s">
+        <v>177</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="59" t="s">
-        <v>148</v>
+      <c r="D25" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
@@ -6968,146 +6155,146 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>230</v>
+      <c r="A26" s="59" t="s">
+        <v>178</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>231</v>
+      <c r="D26" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
-        <v>232</v>
+      <c r="A27" s="59" t="s">
+        <v>180</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>234</v>
+      <c r="D27" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
-        <v>235</v>
+      <c r="A28" s="59" t="s">
+        <v>183</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>61</v>
+      <c r="D28" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
-        <v>238</v>
+      <c r="A29" s="59" t="s">
+        <v>186</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="59" t="s">
-        <v>148</v>
+      <c r="D29" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
-        <v>239</v>
+      <c r="A30" s="59" t="s">
+        <v>187</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="59" t="s">
-        <v>148</v>
+      <c r="D30" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
-        <v>252</v>
+      <c r="A31" s="59" t="s">
+        <v>199</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="59" t="s">
-        <v>148</v>
+      <c r="D31" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="48"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="48"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="48"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="48"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
@@ -7117,13 +6304,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -7140,18 +6327,18 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
+      <c r="B45" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7164,7 +6351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -7177,7 +6364,7 @@
     <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="24.33203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="43" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="5"/>
@@ -7187,20 +6374,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -7212,7 +6399,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -7226,7 +6413,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -7240,7 +6427,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -7254,7 +6441,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -7268,187 +6455,187 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
+      <c r="A19" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
+      <c r="A20" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
+      <c r="A21" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="A22" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="64"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="64"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="48"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="48"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -7458,13 +6645,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -7481,18 +6668,18 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
+      <c r="B43" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7510,7 +6697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -7525,57 +6712,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7584,532 +6771,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:H47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="2">
-        <v>75</v>
-      </c>
-      <c r="G20" s="5">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="G31" s="5">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="2">
-        <v>14</v>
-      </c>
-      <c r="G34" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="G35" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="G36" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B44:D44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
@@ -8139,13 +6800,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8216,7 +6877,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -8227,7 +6888,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -8247,240 +6908,240 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>78</v>
+      <c r="A20" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>108</v>
+      <c r="D20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>79</v>
+      <c r="A21" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>108</v>
+      <c r="D21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>80</v>
+      <c r="A22" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>108</v>
+      <c r="D22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>81</v>
+      <c r="A23" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>108</v>
+      <c r="D23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>82</v>
+      <c r="A24" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>108</v>
+      <c r="D24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>83</v>
+      <c r="A25" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>108</v>
+      <c r="D25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>84</v>
+      <c r="A26" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>108</v>
+      <c r="D26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>85</v>
+      <c r="A27" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>108</v>
+      <c r="D27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>86</v>
+      <c r="A28" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>108</v>
+      <c r="D28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>76</v>
+      <c r="A29" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>109</v>
+      <c r="D29" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>77</v>
+      <c r="A30" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>109</v>
+      <c r="D30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>87</v>
+      <c r="A31" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>62</v>
+      <c r="D31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>88</v>
+      <c r="A32" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>62</v>
+      <c r="D32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>89</v>
+      <c r="A33" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>108</v>
+      <c r="D33" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>90</v>
+      <c r="A34" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>108</v>
+      <c r="D34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>91</v>
+      <c r="A35" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>108</v>
+      <c r="D35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>92</v>
+      <c r="A36" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>108</v>
+      <c r="D36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -8498,14 +7159,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="18" t="s">
-        <v>69</v>
+      <c r="E40" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -8522,18 +7183,18 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="B44" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8546,7 +7207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
@@ -8576,13 +7237,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8653,7 +7314,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -8664,7 +7325,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -8684,240 +7345,240 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>78</v>
+      <c r="A20" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>108</v>
+      <c r="D20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>79</v>
+      <c r="A21" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>108</v>
+      <c r="D21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>80</v>
+      <c r="A22" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>108</v>
+      <c r="D22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>81</v>
+      <c r="A23" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>108</v>
+      <c r="D23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>82</v>
+      <c r="A24" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>108</v>
+      <c r="D24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>83</v>
+      <c r="A25" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>108</v>
+      <c r="D25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>84</v>
+      <c r="A26" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>108</v>
+      <c r="D26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>85</v>
+      <c r="A27" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>108</v>
+      <c r="D27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>86</v>
+      <c r="A28" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>108</v>
+      <c r="D28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>76</v>
+      <c r="A29" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>109</v>
+      <c r="D29" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>77</v>
+      <c r="A30" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>109</v>
+      <c r="D30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>87</v>
+      <c r="A31" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>62</v>
+      <c r="D31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>88</v>
+      <c r="A32" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>62</v>
+      <c r="D32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>89</v>
+      <c r="A33" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>108</v>
+      <c r="D33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>90</v>
+      <c r="A34" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>108</v>
+      <c r="D34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>91</v>
+      <c r="A35" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>108</v>
+      <c r="D35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>92</v>
+      <c r="A36" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>108</v>
+      <c r="D36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -8935,14 +7596,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="18" t="s">
-        <v>69</v>
+      <c r="E40" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -8959,18 +7620,18 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="B44" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8983,7 +7644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A6:H47"/>
   <sheetViews>
@@ -9013,13 +7674,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -9090,7 +7751,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -9101,7 +7762,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -9121,240 +7782,240 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>78</v>
+      <c r="A20" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>108</v>
+      <c r="D20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>79</v>
+      <c r="A21" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>108</v>
+      <c r="D21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>80</v>
+      <c r="A22" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>108</v>
+      <c r="D22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>81</v>
+      <c r="A23" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>108</v>
+      <c r="D23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>82</v>
+      <c r="A24" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>108</v>
+      <c r="D24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>83</v>
+      <c r="A25" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>108</v>
+      <c r="D25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>84</v>
+      <c r="A26" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>108</v>
+      <c r="D26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>85</v>
+      <c r="A27" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>108</v>
+      <c r="D27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>86</v>
+      <c r="A28" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>108</v>
+      <c r="D28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>76</v>
+      <c r="A29" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>109</v>
+      <c r="D29" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>77</v>
+      <c r="A30" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>109</v>
+      <c r="D30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>87</v>
+      <c r="A31" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>62</v>
+      <c r="D31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>88</v>
+      <c r="A32" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>62</v>
+      <c r="D32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>89</v>
+      <c r="A33" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>108</v>
+      <c r="D33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>90</v>
+      <c r="A34" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>108</v>
+      <c r="D34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>91</v>
+      <c r="A35" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>108</v>
+      <c r="D35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>92</v>
+      <c r="A36" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>108</v>
+      <c r="D36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -9372,14 +8033,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="18" t="s">
-        <v>69</v>
+      <c r="E40" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -9396,18 +8057,18 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="B44" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9420,7 +8081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A6:H56"/>
   <sheetViews>
@@ -9443,20 +8104,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -9468,7 +8129,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -9482,7 +8143,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -9496,7 +8157,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -9510,7 +8171,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -9527,7 +8188,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -9538,7 +8199,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -9550,8 +8211,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>120</v>
+      <c r="A19" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -9560,283 +8221,283 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>141</v>
+      <c r="A20" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>121</v>
+      <c r="A21" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="23"/>
+      <c r="D21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="22"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>122</v>
+      <c r="A22" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="23"/>
+      <c r="D22" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="22"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>123</v>
+      <c r="A23" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="23"/>
+      <c r="D23" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>124</v>
+      <c r="A24" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="D24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>125</v>
+      <c r="A25" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="23"/>
+      <c r="D25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>126</v>
+      <c r="A26" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="23"/>
+      <c r="D26" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="22"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>127</v>
+      <c r="A27" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="23"/>
+      <c r="D27" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="22"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>128</v>
+      <c r="A28" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="23"/>
+      <c r="D28" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>129</v>
+      <c r="A29" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="23"/>
+      <c r="D29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="22"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>130</v>
+      <c r="A30" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="23"/>
+      <c r="D30" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>131</v>
+      <c r="A31" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="23"/>
+      <c r="D31" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="22"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>132</v>
+      <c r="A32" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="31"/>
+      <c r="D32" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>133</v>
+      <c r="A33" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="23"/>
+      <c r="D33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="22"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
-        <v>134</v>
+      <c r="A34" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="23"/>
+      <c r="D34" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="22"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>135</v>
+      <c r="A35" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="23"/>
+      <c r="D35" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="22"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>136</v>
+      <c r="A36" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>149</v>
+      <c r="D36" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
-        <v>133</v>
+      <c r="A37" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>149</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>137</v>
+      <c r="A38" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>149</v>
+      <c r="D38" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>138</v>
+      <c r="A39" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="23"/>
+      <c r="D39" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="22"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
-        <v>139</v>
+      <c r="A40" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="23"/>
+      <c r="D40" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="22"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>140</v>
+      <c r="A41" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="23"/>
+      <c r="D41" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="22"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>134</v>
+      <c r="A42" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="23"/>
+      <c r="D42" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="22"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -9845,14 +8506,14 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F44" s="8"/>
     </row>
@@ -9869,23 +8530,23 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="B48" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -9898,7 +8559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -9921,20 +8582,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -9946,7 +8607,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -9960,7 +8621,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -9974,7 +8635,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -9988,7 +8649,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -10005,18 +8666,18 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -10028,192 +8689,192 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="33"/>
+      <c r="A19" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="32"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="38"/>
+      <c r="A21" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="37"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="38"/>
+      <c r="A22" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="37"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="38"/>
+      <c r="A23" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="38"/>
+      <c r="A24" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="38"/>
+      <c r="A25" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="41" t="s">
-        <v>99</v>
+      <c r="A26" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="41" t="s">
-        <v>99</v>
+      <c r="A27" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40" t="s">
-        <v>148</v>
+      <c r="A28" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="38"/>
+      <c r="A29" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="37"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="38"/>
+      <c r="A30" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="37"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="38"/>
+      <c r="A31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="37"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="38"/>
+      <c r="A32" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="37"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="43"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="43"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -10223,13 +8884,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -10246,23 +8907,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -10275,7 +8936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -10298,20 +8959,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10323,7 +8984,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -10337,7 +8998,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -10351,7 +9012,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -10365,7 +9026,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -10379,22 +9040,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
@@ -10406,157 +9067,157 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="33"/>
+      <c r="A19" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="32"/>
       <c r="C19" s="12"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="E21" s="37"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="E22" s="37"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>173</v>
+      <c r="A25" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="15" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="26"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="26"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="26"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="26"/>
-      <c r="D29" s="48"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="26"/>
-      <c r="D30" s="48"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="26"/>
-      <c r="D31" s="48"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="26"/>
-      <c r="D32" s="48"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -10566,13 +9227,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -10589,23 +9250,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -10618,7 +9279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -10641,20 +9302,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -10666,7 +9327,7 @@
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -10680,7 +9341,7 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -10694,7 +9355,7 @@
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -10708,7 +9369,7 @@
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -10725,173 +9386,173 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>70</v>
+      <c r="C18" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="49" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>176</v>
+      <c r="A19" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>175</v>
+      <c r="A20" s="45" t="s">
+        <v>123</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="52" t="s">
-        <v>178</v>
+      <c r="D20" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="53"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="48"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -10901,13 +9562,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -10924,23 +9585,23 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
+      <c r="B41" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -10951,4 +9612,339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A6:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5"/>
+    <col min="4" max="4" width="21.5" style="43" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="53"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="64"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="41"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,30 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE0CFF5-F4D9-9B48-B63C-2A3F31087DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E05BF-B755-564B-BF5B-D8288D0FFCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="980" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Urine lengkap" sheetId="9" r:id="rId1"/>
-    <sheet name="Faeces lengkap" sheetId="10" r:id="rId2"/>
-    <sheet name="Widal " sheetId="11" r:id="rId3"/>
-    <sheet name="BT, CT" sheetId="12" r:id="rId4"/>
-    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId5"/>
-    <sheet name="BGA" sheetId="14" r:id="rId6"/>
-    <sheet name="HIV" sheetId="15" r:id="rId7"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId8"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId9"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId10"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId11"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId12"/>
+    <sheet name="Faeces lengkap" sheetId="10" r:id="rId1"/>
+    <sheet name="Widal " sheetId="11" r:id="rId2"/>
+    <sheet name="BT, CT" sheetId="12" r:id="rId3"/>
+    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId4"/>
+    <sheet name="BGA" sheetId="14" r:id="rId5"/>
+    <sheet name="HIV" sheetId="15" r:id="rId6"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId7"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId8"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId9"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="130">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -105,88 +104,10 @@
     <t>&lt; 5</t>
   </si>
   <si>
-    <t>Urine Lengkap</t>
-  </si>
-  <si>
-    <t>- Warna</t>
-  </si>
-  <si>
-    <t>- Kekeruhan</t>
-  </si>
-  <si>
-    <t>Urine Kimia</t>
-  </si>
-  <si>
-    <t>- Berat Jenis</t>
-  </si>
-  <si>
-    <t>- pH</t>
-  </si>
-  <si>
-    <t>- Lekosit</t>
-  </si>
-  <si>
-    <t>- Nitrit</t>
-  </si>
-  <si>
-    <t>- Protein</t>
-  </si>
-  <si>
-    <t>- Glukosa</t>
-  </si>
-  <si>
-    <t>- Keton</t>
-  </si>
-  <si>
-    <t>- Urobilin</t>
-  </si>
-  <si>
-    <t>- Bilirubin</t>
-  </si>
-  <si>
-    <t>- Eritrosit</t>
-  </si>
-  <si>
-    <t>- Lain-Lain</t>
-  </si>
-  <si>
-    <t>Sedimen</t>
-  </si>
-  <si>
-    <t>- Leukosit</t>
-  </si>
-  <si>
-    <t>- Epitel</t>
-  </si>
-  <si>
-    <t>- Bakteri</t>
-  </si>
-  <si>
-    <t>- Kristal</t>
-  </si>
-  <si>
-    <t>- Silinder</t>
-  </si>
-  <si>
     <t>Makroskopis</t>
   </si>
   <si>
     <t>ket * = apabila lebih atau kurang dari nilai normal muncul tanda bintang di kolom dekat hasil</t>
-  </si>
-  <si>
-    <t>KUNING MUDA</t>
-  </si>
-  <si>
-    <t>JERNIH</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1,010 - 1,020</t>
-  </si>
-  <si>
-    <t>4,50 - 8,00</t>
   </si>
   <si>
     <t>NEGATIF</t>
@@ -560,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,25 +496,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -713,9 +615,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -749,9 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -761,22 +659,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,26 +677,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -846,13 +735,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -864,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -873,11 +762,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,7 +817,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +859,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,183 +975,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1462,183 +1171,6 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -1796,7 +1328,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1973,7 +1505,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2150,7 +1682,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2327,7 +1859,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2504,7 +2036,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2681,7 +2213,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2744,6 +2276,183 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="204787"/>
+          <a:ext cx="4181475" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>LABORATORIUM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>RUMAH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>611368</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="180975"/>
+          <a:ext cx="344668" cy="828136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076326</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,477 +2887,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A6:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="21" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3656,423 +3264,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A6:H48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="24.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B45:D45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -4082,325 +3273,325 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="24.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="24.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="3" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>46</v>
+      <c r="A46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -4433,57 +3624,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4492,370 +3683,336 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="23.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="2"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="20"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="20"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="20"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="20"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="20"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="20"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="20"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="38"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
+      <c r="A44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
+      <c r="A46" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4869,336 +4026,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="23.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="22"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="22"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="22"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="22"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="22"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="22"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
+      <c r="A44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
+      <c r="A46" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5212,341 +4361,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -5556,318 +4370,318 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="21" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="A20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="A21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="22"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="22"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="22"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="22"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="22"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="22"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="22"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="22"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="22"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="20"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="20"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
+      <c r="B25" s="20"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="20"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="20"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="20"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="20"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="20"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="20"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="20"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
+      <c r="A44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
+      <c r="A46" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5881,7 +4695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -5891,350 +4705,350 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="21" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="A21" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="A22" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="A23" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="A24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="A25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="A26" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
+      <c r="A44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
+      <c r="A46" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6247,7 +5061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
@@ -6257,282 +5071,282 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="21" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="3" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>46</v>
+      <c r="A39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>70</v>
+      <c r="A41" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6545,7 +5359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -6555,332 +5369,692 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="21" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="A20" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="A21" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
+      <c r="A44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A6:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6894,359 +6068,416 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A6:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A6:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5"/>
-    <col min="4" max="4" width="21.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="24.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="19" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A25" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="64" t="s">
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>70</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB483423-BA30-4548-B403-1B0B980B8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B1B6F-D25C-6D48-8AF8-1360D14DE149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Widal " sheetId="11" r:id="rId1"/>
-    <sheet name="BT, CT" sheetId="12" r:id="rId2"/>
-    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId3"/>
-    <sheet name="BGA" sheetId="14" r:id="rId4"/>
-    <sheet name="HIV" sheetId="15" r:id="rId5"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId6"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId7"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId8"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId10"/>
+    <sheet name="BT, CT" sheetId="12" r:id="rId1"/>
+    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId2"/>
+    <sheet name="BGA" sheetId="14" r:id="rId3"/>
+    <sheet name="HIV" sheetId="15" r:id="rId4"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId5"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId6"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId7"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="107">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -116,24 +115,6 @@
   </si>
   <si>
     <t>Widal</t>
-  </si>
-  <si>
-    <t>Salmonella typhi O</t>
-  </si>
-  <si>
-    <t>Salmonella typhi H</t>
-  </si>
-  <si>
-    <t>Salmonella paratyphi AO</t>
-  </si>
-  <si>
-    <t>Salmonella paratyphi BO</t>
-  </si>
-  <si>
-    <t>Salmonella paratyphi AH</t>
-  </si>
-  <si>
-    <t>Salmonella paratyphi BH</t>
   </si>
   <si>
     <t>Bleeding time</t>
@@ -765,183 +746,6 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -1099,7 +903,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1276,7 +1080,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1453,7 +1257,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1630,7 +1434,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1807,7 +1611,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1984,7 +1788,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2161,7 +1965,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2658,11 +2462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2761,7 +2565,6 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2775,145 +2578,138 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>28</v>
+      <c r="A19" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="24"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="29"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="29"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="29"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="29"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="15"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
       <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="39"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="20"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="39"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="38"/>
       <c r="B28" s="20"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="39"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="39"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="39"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="39"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="39"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3000,415 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3540,7 +2928,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="11"/>
@@ -3550,43 +2938,43 @@
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="28"/>
       <c r="D21" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="11"/>
       <c r="D22" s="31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -3743,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3875,7 +3263,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="11"/>
@@ -3885,94 +3273,94 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="28"/>
       <c r="D21" s="31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="28"/>
       <c r="D22" s="31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="28"/>
       <c r="D23" s="47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="28"/>
       <c r="D24" s="31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="28"/>
       <c r="D25" s="31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="28"/>
       <c r="D26" s="32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>15</v>
@@ -4109,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
@@ -4241,7 +3629,7 @@
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="11"/>
@@ -4251,36 +3639,36 @@
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="28"/>
       <c r="D21" s="50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="28"/>
       <c r="D22" s="50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="1"/>
@@ -4407,7 +3795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -4539,7 +3927,7 @@
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="11"/>
@@ -4549,29 +3937,29 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="28"/>
       <c r="D21" s="50" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -4755,7 +4143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -4887,7 +4275,7 @@
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -4897,7 +4285,7 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="11"/>
@@ -4909,7 +4297,7 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="11"/>
@@ -4921,7 +4309,7 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="11"/>
@@ -4935,7 +4323,7 @@
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="11"/>
@@ -4949,7 +4337,7 @@
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="11"/>
@@ -4963,7 +4351,7 @@
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="11"/>
@@ -5115,7 +4503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -5244,12 +4632,12 @@
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -5261,7 +4649,7 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="11"/>
@@ -5271,7 +4659,7 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="11"/>
@@ -5281,7 +4669,7 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="11"/>
@@ -5295,12 +4683,12 @@
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="11"/>
       <c r="D23" s="49" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="1"/>
@@ -5309,12 +4697,12 @@
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="11"/>
       <c r="D24" s="50" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="1"/>
@@ -5323,7 +4711,7 @@
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="11"/>
@@ -5337,7 +4725,7 @@
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="11"/>
@@ -5345,7 +4733,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="7"/>
@@ -5353,26 +4741,26 @@
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="11"/>
       <c r="D27" s="50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="51" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="11"/>
       <c r="D28" s="50" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>15</v>
@@ -5381,7 +4769,7 @@
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="11"/>
@@ -5393,7 +4781,7 @@
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="11"/>
@@ -5405,7 +4793,7 @@
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="11"/>
@@ -5532,7 +4920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -5658,7 +5046,7 @@
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -5668,7 +5056,7 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -5678,7 +5066,7 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -5688,7 +5076,7 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -5876,4 +5264,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148B1B6F-D25C-6D48-8AF8-1360D14DE149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06279403-5165-F345-8DC9-5D8869AACC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BT, CT" sheetId="12" r:id="rId1"/>
-    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId2"/>
-    <sheet name="BGA" sheetId="14" r:id="rId3"/>
-    <sheet name="HIV" sheetId="15" r:id="rId4"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId5"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId6"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId7"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId9"/>
+    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId1"/>
+    <sheet name="BGA" sheetId="14" r:id="rId2"/>
+    <sheet name="HIV" sheetId="15" r:id="rId3"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId4"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId5"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId6"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="102">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -115,21 +114,6 @@
   </si>
   <si>
     <t>Widal</t>
-  </si>
-  <si>
-    <t>Bleeding time</t>
-  </si>
-  <si>
-    <t>Clotting Time</t>
-  </si>
-  <si>
-    <t>menit</t>
-  </si>
-  <si>
-    <t>1 − 5</t>
-  </si>
-  <si>
-    <t>5 − 11</t>
   </si>
   <si>
     <t xml:space="preserve">Serum elektrolit </t>
@@ -544,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -552,9 +536,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -643,21 +624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -727,183 +693,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4343400" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1080,7 +869,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1257,7 +1046,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1434,7 +1223,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1611,7 +1400,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1788,7 +1577,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1965,7 +1754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2462,19 +2251,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2484,23 +2273,23 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -2509,7 +2298,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2523,7 +2312,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2537,7 +2326,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2551,7 +2340,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2565,6 +2354,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D14" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2572,540 +2362,204 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="44"/>
+    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="19"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="44"/>
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="19"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="44"/>
+    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="19"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="39"/>
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="19"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="39"/>
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="19"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="39"/>
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="19"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="39"/>
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="19"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="39"/>
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="19"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="39"/>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="19"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="39"/>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="19"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="45"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="20"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="20"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="20"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="20"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="20"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="20"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="20"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="20"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="20"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="20"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -3131,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3144,7 +2598,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -3154,23 +2608,23 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -3179,7 +2633,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3193,7 +2647,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3207,7 +2661,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3221,7 +2675,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3235,7 +2689,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -3243,236 +2697,236 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="E23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="E24" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="47" t="s">
+      <c r="E25" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="48"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="48"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="48"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="48"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="34"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -3497,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
@@ -3510,7 +2964,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -3520,23 +2974,23 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -3545,7 +2999,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3559,7 +3013,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3573,7 +3027,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3587,7 +3041,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3601,7 +3055,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -3609,168 +3063,168 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="29"/>
+      <c r="A20" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="28"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="29"/>
+      <c r="A21" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="28"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="29"/>
+      <c r="A22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="28"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3795,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3808,7 +3262,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -3818,23 +3272,23 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -3843,7 +3297,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3857,7 +3311,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3871,7 +3325,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3885,7 +3339,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3899,7 +3353,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -3907,218 +3361,218 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>67</v>
+      <c r="E21" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -4143,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -4156,7 +3610,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -4166,23 +3620,23 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -4191,7 +3645,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -4205,7 +3659,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -4219,7 +3673,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -4233,7 +3687,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -4247,7 +3701,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -4255,230 +3709,230 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="17" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -4503,7 +3957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -4516,7 +3970,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="34" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -4526,23 +3980,23 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -4551,7 +4005,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -4565,7 +4019,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -4579,7 +4033,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -4593,7 +4047,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -4607,7 +4061,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -4615,292 +4069,292 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="19" t="s">
-        <v>92</v>
+      <c r="F18" s="34"/>
+      <c r="G18" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="17" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="50" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="50" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="50" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
@@ -4920,7 +4374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -4933,7 +4387,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="34" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -4943,23 +4397,23 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -4968,7 +4422,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -4982,7 +4436,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -4996,7 +4450,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -5010,7 +4464,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -5024,7 +4478,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -5032,216 +4486,216 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="19"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="A20" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
+      <c r="A22" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="55"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="55"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="52"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
@@ -5266,7 +4720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -5281,12 +4735,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -5296,7 +4750,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -5306,32 +4760,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06279403-5165-F345-8DC9-5D8869AACC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B544B5F-6047-ED48-B627-7E67231EB3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Serum Elektrolit " sheetId="13" r:id="rId1"/>
-    <sheet name="BGA" sheetId="14" r:id="rId2"/>
-    <sheet name="HIV" sheetId="15" r:id="rId3"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId4"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId5"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId6"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId8"/>
+    <sheet name="BGA" sheetId="14" r:id="rId1"/>
+    <sheet name="HIV" sheetId="15" r:id="rId2"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId3"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId4"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId5"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="95">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -114,27 +113,6 @@
   </si>
   <si>
     <t>Widal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum elektrolit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natrium </t>
-  </si>
-  <si>
-    <t>Kalium</t>
-  </si>
-  <si>
-    <t>Chlorida</t>
-  </si>
-  <si>
-    <t>138 - 146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,5 - 4,9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">98 - 109 </t>
   </si>
   <si>
     <t>mmol/L</t>
@@ -528,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -656,9 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,183 +668,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1046,7 +844,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1223,7 +1021,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1400,7 +1198,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1577,7 +1375,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1754,7 +1552,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2251,11 +2049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2280,13 +2078,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2382,7 +2180,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="10"/>
@@ -2390,114 +2188,146 @@
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="27"/>
       <c r="D20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E20" s="40"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="27"/>
       <c r="D21" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="E22" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="19"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="19"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>29</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="19"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>29</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="19"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="1"/>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="19"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="33"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="19"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="42"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="19"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="42"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="19"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="42"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="19"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="42"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="42"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2555,378 +2385,11 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -2951,7 +2414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A6:H41"/>
   <sheetViews>
@@ -2981,13 +2444,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3083,7 +2546,7 @@
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="10"/>
@@ -3093,36 +2556,36 @@
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="27"/>
       <c r="D20" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="27"/>
       <c r="D21" s="44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="27"/>
       <c r="D22" s="44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="1"/>
@@ -3220,11 +2683,11 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3249,7 +2712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3279,13 +2742,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3381,7 +2844,7 @@
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="10"/>
@@ -3391,29 +2854,29 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="27"/>
       <c r="D20" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="27"/>
       <c r="D21" s="44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -3568,11 +3031,11 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -3597,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3627,13 +3090,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3729,7 +3192,7 @@
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -3739,7 +3202,7 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
@@ -3751,7 +3214,7 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
@@ -3763,7 +3226,7 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
@@ -3777,7 +3240,7 @@
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
@@ -3791,7 +3254,7 @@
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -3805,7 +3268,7 @@
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
@@ -3928,11 +3391,11 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -3957,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -3987,13 +3450,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4086,12 +3549,12 @@
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -4103,7 +3566,7 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
@@ -4113,7 +3576,7 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
@@ -4123,7 +3586,7 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
@@ -4137,12 +3600,12 @@
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
       <c r="D23" s="43" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
@@ -4151,12 +3614,12 @@
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
       <c r="D24" s="44" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="1"/>
@@ -4165,7 +3628,7 @@
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
@@ -4179,7 +3642,7 @@
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
@@ -4187,7 +3650,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
@@ -4195,26 +3658,26 @@
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
       <c r="D27" s="44" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
       <c r="D28" s="44" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>15</v>
@@ -4223,7 +3686,7 @@
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
@@ -4235,7 +3698,7 @@
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
@@ -4247,7 +3710,7 @@
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
@@ -4350,11 +3813,11 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
@@ -4374,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -4404,13 +3867,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4489,53 +3952,53 @@
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="34"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
+        <v>84</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+        <v>85</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+        <v>86</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4691,11 +4154,11 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
@@ -4720,7 +4183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -4735,12 +4198,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4750,7 +4213,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4760,32 +4223,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B544B5F-6047-ED48-B627-7E67231EB3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD78AF8-9762-C648-BB0B-0617CABFFBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BGA" sheetId="14" r:id="rId1"/>
-    <sheet name="HIV" sheetId="15" r:id="rId2"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId3"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId4"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId5"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId7"/>
+    <sheet name="HIV" sheetId="15" r:id="rId1"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId2"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId3"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId4"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -113,112 +112,6 @@
   </si>
   <si>
     <t>Widal</t>
-  </si>
-  <si>
-    <t>mmol/L</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Analisa Gas Darah</t>
-  </si>
-  <si>
-    <t>mmHg</t>
-  </si>
-  <si>
-    <t>7,31 - 7,41</t>
-  </si>
-  <si>
-    <t>41,0 - 51,0</t>
-  </si>
-  <si>
-    <t>80 - 105</t>
-  </si>
-  <si>
-    <t>(‐ 2) -(+ 3)</t>
-  </si>
-  <si>
-    <r>
-      <t>PCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>₂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>₂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>₃</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>₂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>sO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>₂</t>
-    </r>
-  </si>
-  <si>
-    <t>23,0 - 28,0</t>
-  </si>
-  <si>
-    <t>24 - 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95 - 98 </t>
   </si>
   <si>
     <t>HIV Antibodi</t>
@@ -372,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,34 +283,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -506,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -565,27 +430,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,12 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -668,183 +509,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1021,7 +685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1198,7 +862,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1375,7 +1039,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1552,7 +1216,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2049,11 +1713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A6:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A6:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2061,7 +1725,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="28" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2078,13 +1742,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2096,7 +1760,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2110,7 +1774,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2124,7 +1788,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2138,7 +1802,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="33" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2152,7 +1816,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2175,12 +1839,12 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>32</v>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="10"/>
@@ -2188,226 +1852,158 @@
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="24"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="40"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="27"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>38</v>
+      <c r="A21" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="40" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="36" t="s">
         <v>33</v>
       </c>
+      <c r="E21" s="27"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>39</v>
+      <c r="A22" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="B22" s="24"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="40" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="36" t="s">
         <v>33</v>
       </c>
+      <c r="E22" s="27"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>29</v>
-      </c>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>29</v>
-      </c>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>29</v>
-      </c>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>15</v>
-      </c>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="42"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="42"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="42"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B36" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A41" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2415,10 +2011,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A6:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
@@ -2427,7 +2023,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="28" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2444,13 +2040,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2462,7 +2058,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2476,7 +2072,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2490,7 +2086,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2504,7 +2100,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="33" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2518,14 +2114,14 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
@@ -2541,12 +2137,12 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>46</v>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="10"/>
@@ -2554,158 +2150,208 @@
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>47</v>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="24"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>48</v>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="24"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="28"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
       <c r="B23" s="19"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="38"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
       <c r="B25" s="19"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="38"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="38"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="38"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="2" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2713,10 +2359,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
@@ -2725,7 +2371,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="28" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2742,13 +2388,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2760,7 +2406,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2774,7 +2420,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2788,7 +2434,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2802,7 +2448,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="33" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2816,7 +2462,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2839,166 +2485,178 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="23"/>
+      <c r="A19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="13"/>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>55</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>55</v>
-      </c>
+      <c r="A21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="1"/>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="1"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="38"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="38"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="38"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="19"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="38"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="38"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="38"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="38"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -3031,11 +2689,11 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -3061,366 +2719,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -3433,7 +2731,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="28" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -3450,13 +2748,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3468,7 +2766,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3482,7 +2780,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3496,7 +2794,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3510,7 +2808,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="33" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3524,7 +2822,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -3547,14 +2845,14 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="18" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>64</v>
+      <c r="A19" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -3565,8 +2863,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>65</v>
+      <c r="A20" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
@@ -3575,22 +2873,22 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>66</v>
+      <c r="A21" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="44"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="17"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
-        <v>67</v>
+      <c r="A22" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="14"/>
@@ -3599,13 +2897,13 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
-        <v>68</v>
+      <c r="A23" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="43" t="s">
-        <v>69</v>
+      <c r="D23" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
@@ -3613,13 +2911,13 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
-        <v>70</v>
+      <c r="A24" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="44" t="s">
-        <v>71</v>
+      <c r="D24" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="1"/>
@@ -3627,12 +2925,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
-        <v>72</v>
+      <c r="A25" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="14"/>
@@ -3641,43 +2939,43 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
-        <v>73</v>
+      <c r="A26" s="37" t="s">
+        <v>56</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>75</v>
+      <c r="A27" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="44" t="s">
-        <v>76</v>
+      <c r="D27" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
-        <v>78</v>
+      <c r="A28" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="44" t="s">
-        <v>79</v>
+      <c r="D28" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>15</v>
@@ -3685,102 +2983,102 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>81</v>
+      <c r="A29" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
-        <v>82</v>
+      <c r="A30" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
-        <v>94</v>
+      <c r="A31" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="38"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="38"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="38"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="19"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="38"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="19"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="38"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="19"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="38"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="19"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="38"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
@@ -3813,11 +3111,11 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
@@ -3837,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3850,7 +3148,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="28" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -3867,13 +3165,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3885,7 +3183,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3899,7 +3197,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3913,7 +3211,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3927,7 +3225,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="33" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3941,7 +3239,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -3952,176 +3250,176 @@
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="34"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="A19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="A21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="A22" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="19"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="21"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="19"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="49"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="49"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="49"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="49"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="49"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="19"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="38"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="38"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="19"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="38"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="19"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="38"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
@@ -4154,11 +3452,11 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
@@ -4183,7 +3481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -4198,12 +3496,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4213,7 +3511,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4223,32 +3521,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD78AF8-9762-C648-BB0B-0617CABFFBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD83B2-163F-8047-AB8C-455068E55459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HIV" sheetId="15" r:id="rId1"/>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId2"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId3"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId4"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId5"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId6"/>
+    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId1"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId2"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId3"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -112,21 +111,6 @@
   </si>
   <si>
     <t>Widal</t>
-  </si>
-  <si>
-    <t>HIV Antibodi</t>
-  </si>
-  <si>
-    <t>Reagen 1</t>
-  </si>
-  <si>
-    <t>Reagen 2</t>
-  </si>
-  <si>
-    <t>Reagen 3</t>
-  </si>
-  <si>
-    <t>Non Reaktif</t>
   </si>
   <si>
     <t>Faal Hemostasis</t>
@@ -371,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -431,16 +415,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,183 +487,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -862,7 +663,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1039,7 +840,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1216,7 +1017,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1713,11 +1514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A6:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1526,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="27" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -1742,13 +1543,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1760,7 +1561,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1774,7 +1575,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1788,7 +1589,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1802,7 +1603,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1816,14 +1617,14 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
@@ -1839,11 +1640,11 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="23"/>
@@ -1852,158 +1653,208 @@
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>30</v>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="27"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>31</v>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="27"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="27"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
       <c r="B23" s="19"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
       <c r="B25" s="19"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="43" t="s">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="2" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2011,10 +1862,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +1874,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="27" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2040,13 +1891,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2058,7 +1909,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2072,7 +1923,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2086,7 +1937,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2100,7 +1951,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2114,7 +1965,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2137,166 +1988,178 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="23"/>
+      <c r="A19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="13"/>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="1"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="19"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -2329,11 +2192,11 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -2359,366 +2222,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -2731,7 +2234,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="27" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2748,13 +2251,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2766,7 +2269,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2780,7 +2283,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2794,7 +2297,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2808,7 +2311,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2822,7 +2325,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2845,14 +2348,14 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>47</v>
+      <c r="A19" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -2863,8 +2366,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>48</v>
+      <c r="A20" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
@@ -2873,22 +2376,22 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>49</v>
+      <c r="A21" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="17"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>50</v>
+      <c r="A22" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="14"/>
@@ -2897,13 +2400,13 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>51</v>
+      <c r="A23" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="35" t="s">
-        <v>52</v>
+      <c r="D23" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
@@ -2911,13 +2414,13 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>53</v>
+      <c r="A24" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="36" t="s">
-        <v>54</v>
+      <c r="D24" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="1"/>
@@ -2925,12 +2428,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>55</v>
+      <c r="A25" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="14"/>
@@ -2939,43 +2442,43 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>56</v>
+      <c r="A26" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>58</v>
+      <c r="A27" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="36" t="s">
-        <v>59</v>
+      <c r="D27" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>61</v>
+      <c r="A28" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="36" t="s">
-        <v>62</v>
+      <c r="D28" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>15</v>
@@ -2983,102 +2486,102 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>64</v>
+      <c r="A29" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>65</v>
+      <c r="A30" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>77</v>
+      <c r="A31" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="19"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="19"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="19"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="32"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
@@ -3111,11 +2614,11 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
@@ -3135,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -3148,7 +2651,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="27" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -3165,13 +2668,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3183,7 +2686,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3197,7 +2700,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3211,7 +2714,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3225,7 +2728,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3239,7 +2742,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -3250,176 +2753,176 @@
       <c r="A18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="28"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="A19" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="A21" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="A22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="19"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="38"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="21"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="19"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="19"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="38"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="38"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="19"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
@@ -3452,11 +2955,11 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
@@ -3481,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -3496,12 +2999,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3511,7 +3014,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3521,32 +3024,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD83B2-163F-8047-AB8C-455068E55459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F9D09D-5D4E-4E4F-851F-465FFB392A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Faal Hemostasis" sheetId="16" r:id="rId1"/>
-    <sheet name="Narkoba" sheetId="17" r:id="rId2"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId3"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId4"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId5"/>
+    <sheet name="Narkoba" sheetId="17" r:id="rId1"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId2"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId3"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -114,21 +113,6 @@
   </si>
   <si>
     <t>Faal Hemostasis</t>
-  </si>
-  <si>
-    <t>APTT</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>10,50 - 16,50</t>
-  </si>
-  <si>
-    <t>sekon</t>
-  </si>
-  <si>
-    <t>30 - 46</t>
   </si>
   <si>
     <t>Narkoba</t>
@@ -280,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -313,19 +297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -338,24 +309,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -406,15 +364,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,9 +391,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,183 +432,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>790574</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266699" y="180975"/>
-          <a:ext cx="523875" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -840,7 +608,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1017,7 +785,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1514,10 +1282,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1526,7 +1294,7 @@
     <col min="1" max="1" width="21" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="24" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -1543,13 +1311,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1561,7 +1329,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1575,7 +1343,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1589,7 +1357,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1603,7 +1371,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1617,7 +1385,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1625,7 +1393,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1640,166 +1408,178 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="23"/>
+      <c r="A19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="13"/>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="1"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="19"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="30"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -1832,11 +1612,11 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
@@ -1862,366 +1642,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
@@ -2234,7 +1654,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="24" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2251,13 +1671,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2269,7 +1689,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2283,7 +1703,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2297,7 +1717,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2311,7 +1731,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2325,7 +1745,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2333,7 +1753,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2348,14 +1768,14 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>42</v>
+      <c r="A19" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -2366,8 +1786,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>43</v>
+      <c r="A20" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
@@ -2376,22 +1796,22 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>44</v>
+      <c r="A21" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="17"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>45</v>
+      <c r="A22" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="14"/>
@@ -2400,13 +1820,13 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>46</v>
+      <c r="A23" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="33" t="s">
-        <v>47</v>
+      <c r="D23" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
@@ -2414,13 +1834,13 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>48</v>
+      <c r="A24" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="34" t="s">
-        <v>49</v>
+      <c r="D24" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="1"/>
@@ -2428,12 +1848,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>50</v>
+      <c r="A25" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="14"/>
@@ -2442,43 +1862,43 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>51</v>
+      <c r="A26" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>53</v>
+      <c r="A27" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="34" t="s">
-        <v>54</v>
+      <c r="D27" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>56</v>
+      <c r="A28" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="34" t="s">
-        <v>57</v>
+      <c r="D28" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>15</v>
@@ -2486,102 +1906,102 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>59</v>
+      <c r="A29" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>60</v>
+      <c r="A30" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>72</v>
+      <c r="A31" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="30"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="19"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="19"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="19"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="30"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="19"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="30"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
@@ -2614,11 +2034,11 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
@@ -2638,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -2651,7 +2071,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="24" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2668,13 +2088,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2686,7 +2106,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2700,7 +2120,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2714,7 +2134,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2728,7 +2148,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2742,7 +2162,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2750,179 +2170,179 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="27"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="A20" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+      <c r="A21" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="A22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="19"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="39"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="19"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="36"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="21"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="19"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="19"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="39"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="19"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="39"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="19"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="19"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="19"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="39"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="19"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="36"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="19"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="30"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="19"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="19"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="19"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="19"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
@@ -2955,11 +2375,11 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
@@ -2984,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -2999,12 +2419,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3014,7 +2434,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3024,17 +2444,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -3044,12 +2464,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/lab.xlsx
+++ b/lab.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teknikkomputer/Documents/node/labexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F9D09D-5D4E-4E4F-851F-465FFB392A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA9A420-0AB8-4F43-A227-9A2DE7ECF2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="960" windowWidth="20060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Narkoba" sheetId="17" r:id="rId1"/>
-    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId2"/>
-    <sheet name="hasil panjang" sheetId="19" r:id="rId3"/>
-    <sheet name="Sheet8" sheetId="20" r:id="rId4"/>
+    <sheet name="LAIN - LAIN " sheetId="18" r:id="rId1"/>
+    <sheet name="hasil panjang" sheetId="19" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="20" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t xml:space="preserve">Laporan Hasil Pemeriksaan Laboratorium </t>
   </si>
@@ -106,9 +105,6 @@
     <t>Faeces Lengkap</t>
   </si>
   <si>
-    <t>(paketan sekali ketik judul muncul semua pemeriksaan)</t>
-  </si>
-  <si>
     <t>Widal</t>
   </si>
   <si>
@@ -116,24 +112,6 @@
   </si>
   <si>
     <t>Narkoba</t>
-  </si>
-  <si>
-    <t>Metaphetamine</t>
-  </si>
-  <si>
-    <t>Cocain</t>
-  </si>
-  <si>
-    <t>Morphine</t>
-  </si>
-  <si>
-    <t>Amphetamin</t>
-  </si>
-  <si>
-    <t>Benzodiazepine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THC </t>
   </si>
   <si>
     <t>HBsAg</t>
@@ -313,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -336,9 +314,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -368,9 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -432,183 +404,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>611368</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>56611</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="180975"/>
-          <a:ext cx="344668" cy="828136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1219201</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1076326</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219201" y="204787"/>
-          <a:ext cx="4181475" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>LABORATORIUM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>RUMAH</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> SAKIT UMUM DAERAH TONGAS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Jl. Raya Tongas No.229 Probolinggo, Jawa Timur 67252</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Telp. (0335)511118/-.Fax.511837</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -785,7 +580,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1282,371 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A6:H46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="21.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A6:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1089,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="23" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -1664,20 +1099,20 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1689,7 +1124,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1703,7 +1138,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1717,7 +1152,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1731,7 +1166,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1745,7 +1180,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1753,7 +1188,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1768,240 +1203,240 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="18" t="s">
-        <v>53</v>
+      <c r="F18" s="23"/>
+      <c r="G18" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>37</v>
+      <c r="A19" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>38</v>
+      <c r="A20" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>39</v>
+      <c r="A21" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>40</v>
+      <c r="A22" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>41</v>
+      <c r="A23" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="D23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>43</v>
+      <c r="A24" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="14"/>
+      <c r="D24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="1"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>45</v>
+      <c r="A25" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="1"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>46</v>
+      <c r="A26" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>47</v>
+      <c r="E26" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>48</v>
+      <c r="A27" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>50</v>
+      <c r="D27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
-        <v>51</v>
+      <c r="A28" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
-        <v>54</v>
+      <c r="A29" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>55</v>
+      <c r="A30" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>67</v>
+      <c r="A31" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="27"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="27"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="27"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
@@ -2016,7 +1451,7 @@
       <c r="C41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="6"/>
@@ -2034,11 +1469,11 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
@@ -2058,7 +1493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A6:H46"/>
   <sheetViews>
@@ -2071,7 +1506,7 @@
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="24.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="23" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
@@ -2081,20 +1516,20 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2106,7 +1541,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2120,7 +1555,7 @@
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2134,7 +1569,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2148,7 +1583,7 @@
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2162,7 +1597,7 @@
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2170,179 +1605,179 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="A19" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="A21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="A22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="1"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="1"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="27"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
@@ -2357,7 +1792,7 @@
       <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="6"/>
@@ -2375,11 +1810,11 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
@@ -2404,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -2419,22 +1854,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2444,32 +1879,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
